--- a/main/data/return_mock_unique_updated.xlsx
+++ b/main/data/return_mock_unique_updated.xlsx
@@ -5,22 +5,22 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyMain\dashboard\main\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\parkj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7CB838A-AE2F-4ED2-85E3-21DCA9682DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F401303-9F79-44AD-A2A3-0BFCB896F229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="report" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="143">
   <si>
     <t>department</t>
   </si>
@@ -67,126 +67,6 @@
     <t>CS</t>
   </si>
   <si>
-    <t>98215874585</t>
-  </si>
-  <si>
-    <t>68466380155</t>
-  </si>
-  <si>
-    <t>30646603804</t>
-  </si>
-  <si>
-    <t>68745992531</t>
-  </si>
-  <si>
-    <t>35986207217</t>
-  </si>
-  <si>
-    <t>39834949540</t>
-  </si>
-  <si>
-    <t>17164261368</t>
-  </si>
-  <si>
-    <t>62875934164</t>
-  </si>
-  <si>
-    <t>72950314495</t>
-  </si>
-  <si>
-    <t>28454516305</t>
-  </si>
-  <si>
-    <t>77619002424</t>
-  </si>
-  <si>
-    <t>59493002265</t>
-  </si>
-  <si>
-    <t>50088485025</t>
-  </si>
-  <si>
-    <t>17007966563</t>
-  </si>
-  <si>
-    <t>48264179392</t>
-  </si>
-  <si>
-    <t>61262691821</t>
-  </si>
-  <si>
-    <t>54813561423</t>
-  </si>
-  <si>
-    <t>55573745085</t>
-  </si>
-  <si>
-    <t>20362453782</t>
-  </si>
-  <si>
-    <t>48961571078</t>
-  </si>
-  <si>
-    <t>50501880478</t>
-  </si>
-  <si>
-    <t>88354875371</t>
-  </si>
-  <si>
-    <t>98125730368</t>
-  </si>
-  <si>
-    <t>61107402042</t>
-  </si>
-  <si>
-    <t>11254069627</t>
-  </si>
-  <si>
-    <t>32368964183</t>
-  </si>
-  <si>
-    <t>36998323806</t>
-  </si>
-  <si>
-    <t>50201255642</t>
-  </si>
-  <si>
-    <t>16063955695</t>
-  </si>
-  <si>
-    <t>53730949336</t>
-  </si>
-  <si>
-    <t>31446881821</t>
-  </si>
-  <si>
-    <t>99412871982</t>
-  </si>
-  <si>
-    <t>79106824128</t>
-  </si>
-  <si>
-    <t>68271641142</t>
-  </si>
-  <si>
-    <t>81758794924</t>
-  </si>
-  <si>
-    <t>49991748399</t>
-  </si>
-  <si>
-    <t>75469495922</t>
-  </si>
-  <si>
-    <t>95376193563</t>
-  </si>
-  <si>
-    <t>43214888034</t>
-  </si>
-  <si>
-    <t>72799435306</t>
-  </si>
-  <si>
     <t>GANGBUK-GU</t>
   </si>
   <si>
@@ -199,6 +79,15 @@
     <t>JUNGNANG-GU</t>
   </si>
   <si>
+    <t>DONGDAEMUN-GU</t>
+  </si>
+  <si>
+    <t>SEONGBUK-GU</t>
+  </si>
+  <si>
+    <t>JONGNO-GU</t>
+  </si>
+  <si>
     <t>(주)오닉스인싸이트코리아</t>
   </si>
   <si>
@@ -265,16 +154,310 @@
     <t>OSSTEM IMPLANT INC</t>
   </si>
   <si>
+    <t>신미원</t>
+  </si>
+  <si>
+    <t>오진상사 (주)</t>
+  </si>
+  <si>
+    <t>최, 준형</t>
+  </si>
+  <si>
+    <t>박, 주용</t>
+  </si>
+  <si>
+    <t>S1_KR_OEM</t>
+  </si>
+  <si>
+    <t>HDXWILL_KR_OEM</t>
+  </si>
+  <si>
+    <t>삼성에스디에스(주)</t>
+  </si>
+  <si>
+    <t>(주)에스원</t>
+  </si>
+  <si>
+    <t>(주)윌앤비전</t>
+  </si>
+  <si>
+    <t>고등과학원</t>
+  </si>
+  <si>
+    <t>한국과학기술원</t>
+  </si>
+  <si>
+    <t>KIAS</t>
+  </si>
+  <si>
+    <t>안석규</t>
+  </si>
+  <si>
+    <t>김, 대원</t>
+  </si>
+  <si>
+    <t>연세대학교</t>
+  </si>
+  <si>
+    <t>SK HYNIX INC</t>
+  </si>
+  <si>
+    <t>RELIANCE CORPORATE IT PARK LIMITED</t>
+  </si>
+  <si>
+    <t>한국오라클 유한회사</t>
+  </si>
+  <si>
+    <t>MESO SCALE DIAGNOSTICS LLC</t>
+  </si>
+  <si>
+    <t>할덱스코리아(주)</t>
+  </si>
+  <si>
+    <t>11번가 주식회사</t>
+  </si>
+  <si>
+    <t>메리츠증권</t>
+  </si>
+  <si>
+    <t>메가존클라우드 주식회사</t>
+  </si>
+  <si>
+    <t>서경대학교</t>
+  </si>
+  <si>
+    <t>中海油能源物流有限公司</t>
+  </si>
+  <si>
+    <t>이, 상섭</t>
+  </si>
+  <si>
+    <t>湖南省通信产业服务有限公司</t>
+  </si>
+  <si>
+    <t>宁波海曙浩浩计算机有限公司</t>
+  </si>
+  <si>
+    <t>APPLIED BIOSYSTEMS</t>
+  </si>
+  <si>
+    <t>St Laurence College</t>
+  </si>
+  <si>
+    <t>KOREA UNIVERSITY</t>
+  </si>
+  <si>
+    <t>SANDSLAB_KR_OEM</t>
+  </si>
+  <si>
+    <t>KOREA UNIV</t>
+  </si>
+  <si>
+    <t>성신여자대학교</t>
+  </si>
+  <si>
+    <t>Google Tkt: 821315007 S/N: 79LWKJ3</t>
+  </si>
+  <si>
+    <t>Google Tkt: 1463360675 S/N: GPKWKJ3</t>
+  </si>
+  <si>
+    <t>GOOGLE - GGC/OEM</t>
+  </si>
+  <si>
+    <t>성유진</t>
+  </si>
+  <si>
+    <t>차, 헌도</t>
+  </si>
+  <si>
+    <t>DAEWON_SNS-SMB</t>
+  </si>
+  <si>
+    <t>배화여자대학</t>
+  </si>
+  <si>
+    <t>주식회사 게임빌엔</t>
+  </si>
+  <si>
+    <t>버슘머트리얼즈코리아</t>
+  </si>
+  <si>
+    <t>HYUNGSUK LEE</t>
+  </si>
+  <si>
+    <t>(주)디자인실버피쉬</t>
+  </si>
+  <si>
+    <t>현대중공업(주)</t>
+  </si>
+  <si>
+    <t>서울대학교병원</t>
+  </si>
+  <si>
+    <t>KT_VSS_KR_OEM</t>
+  </si>
+  <si>
+    <t>주식회사 이테크시스템</t>
+  </si>
+  <si>
+    <t>(주)케이티</t>
+  </si>
+  <si>
+    <t>주식회사 케이티</t>
+  </si>
+  <si>
+    <t>케이티커머스 주식회사</t>
+  </si>
+  <si>
+    <t>INNODEP</t>
+  </si>
+  <si>
+    <t>(주)안랩_KR_OEM</t>
+  </si>
+  <si>
+    <t>디자인 유에</t>
+  </si>
+  <si>
+    <t>존스랑라살 주식회사</t>
+  </si>
+  <si>
+    <t>(유)그룹세브코리아</t>
+  </si>
+  <si>
+    <t>(유)한국마이크로소프트</t>
+  </si>
+  <si>
+    <t>동아제약(주)</t>
+  </si>
+  <si>
+    <t>(주)연합뉴스</t>
+  </si>
+  <si>
+    <t>오픈텍스트코리아 주식회사</t>
+  </si>
+  <si>
+    <t>(주)박스터</t>
+  </si>
+  <si>
+    <t>(주)디엔브이비즈니스어슈어런스코리아</t>
+  </si>
+  <si>
+    <t>주식회사 박스터코리아</t>
+  </si>
+  <si>
+    <t>AUSTRADE</t>
+  </si>
+  <si>
+    <t>디엔브이코리아 유한회사</t>
+  </si>
+  <si>
+    <t>Customer Num - 351696999</t>
+  </si>
+  <si>
+    <t>인디아스테이트은행</t>
+  </si>
+  <si>
+    <t>유니버설픽쳐스인터내셔널코리아유한회사</t>
+  </si>
+  <si>
+    <t>엘브이엠에이치코스메틱스 유한회사</t>
+  </si>
+  <si>
+    <t>ｼｭﾙﾝﾍﾞﾙｼﾞｪ(株)</t>
+  </si>
+  <si>
+    <t>녹십자의료재단</t>
+  </si>
+  <si>
+    <t>한국애브비 주식회사</t>
+  </si>
+  <si>
+    <t>(주)한국스탠다드차타드제일은행</t>
+  </si>
+  <si>
+    <t>신젠타코리아 (주) 서울지점</t>
+  </si>
+  <si>
+    <t>모바일티씨에스 주식회사</t>
+  </si>
+  <si>
+    <t>RIMINI STREET INC</t>
+  </si>
+  <si>
+    <t>유비에스증권리미티드(영업소)</t>
+  </si>
+  <si>
+    <t>맥쿼리증권(주)</t>
+  </si>
+  <si>
+    <t>코리오제너레이션 주식회사</t>
+  </si>
+  <si>
+    <t>아슈리온코리아 유한회사</t>
+  </si>
+  <si>
+    <t>맥쿼리파이낸스코리아 주식회사</t>
+  </si>
+  <si>
+    <t>SUPERTRON ELECTRONICS PRIVATE</t>
+  </si>
+  <si>
+    <t>경찰청</t>
+  </si>
+  <si>
+    <t>김앤장</t>
+  </si>
+  <si>
+    <t>KIMNCHANG</t>
+  </si>
+  <si>
+    <t>금융위원회</t>
+  </si>
+  <si>
+    <t>외교부</t>
+  </si>
+  <si>
+    <t>광화문미래에셋호텔</t>
+  </si>
+  <si>
+    <t>(주)넥스트칩</t>
+  </si>
+  <si>
+    <t>주식회사 한국씨티은행</t>
+  </si>
+  <si>
+    <t>태광그룹</t>
+  </si>
+  <si>
+    <t>서울시청</t>
+  </si>
+  <si>
+    <t>컬리어스인터내셔널코리아(주)</t>
+  </si>
+  <si>
+    <t>주식회사 톰슨로이터코리아</t>
+  </si>
+  <si>
+    <t>유수영</t>
+  </si>
+  <si>
+    <t>주식회사 이노와이어리스</t>
+  </si>
+  <si>
+    <t>하노버재보험㈜ 한국지점</t>
+  </si>
+  <si>
     <t>대기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -335,12 +518,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -645,10 +829,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -658,15 +842,15 @@
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.25" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.08203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
@@ -717,1031 +901,8528 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2">
+        <v>95456401974</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45681.119282366722</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2">
-        <v>45675.198125397546</v>
-      </c>
-      <c r="F2" t="s">
-        <v>55</v>
-      </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K2">
         <v>1019</v>
       </c>
-      <c r="N2" s="2">
-        <v>45631</v>
+      <c r="N2" s="3">
+        <v>45661</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
+      <c r="B3">
+        <v>95454974416</v>
       </c>
       <c r="C3" s="2">
-        <v>45677.198125397546</v>
+        <v>45681.651423570431</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J3" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K3">
         <v>1058</v>
       </c>
-      <c r="N3" s="2">
-        <v>45573</v>
+      <c r="N3" s="3">
+        <v>45652</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
+      <c r="B4">
+        <v>95455138593</v>
       </c>
       <c r="C4" s="2">
-        <v>45671.198125397546</v>
+        <v>45675.901087922277</v>
       </c>
       <c r="F4" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K4">
         <v>1062</v>
       </c>
-      <c r="N4" s="2">
-        <v>45582</v>
+      <c r="N4" s="3">
+        <v>45670</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s">
-        <v>18</v>
+      <c r="B5">
+        <v>95455909407</v>
       </c>
       <c r="C5" s="2">
-        <v>45677.198125397546</v>
+        <v>45677.513958292649</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="J5" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K5">
         <v>1122</v>
       </c>
-      <c r="N5" s="2">
-        <v>45610</v>
+      <c r="N5" s="3">
+        <v>45663</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
+      <c r="B6">
+        <v>95454101629</v>
       </c>
       <c r="C6" s="2">
-        <v>45673.198125397546</v>
+        <v>45680.01353005191</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K6">
         <v>1135</v>
       </c>
-      <c r="N6" s="2">
-        <v>45546</v>
+      <c r="N6" s="3">
+        <v>45666</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>20</v>
+      <c r="B7">
+        <v>95455139000</v>
       </c>
       <c r="C7" s="2">
-        <v>45671.198125397546</v>
+        <v>45685.125231440798</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G7" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K7">
         <v>1142</v>
       </c>
-      <c r="N7" s="2">
-        <v>45581</v>
+      <c r="N7" s="3">
+        <v>45661</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>21</v>
+      <c r="B8">
+        <v>95455567761</v>
       </c>
       <c r="C8" s="2">
-        <v>45676.198125397546</v>
+        <v>45675.771469866733</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K8">
         <v>1211</v>
       </c>
-      <c r="N8" s="2">
-        <v>45597</v>
+      <c r="N8" s="3">
+        <v>45655</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
+      <c r="B9">
+        <v>95456268075</v>
       </c>
       <c r="C9" s="2">
-        <v>45676.198125397546</v>
+        <v>45683.453611070428</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K9">
         <v>1220</v>
       </c>
-      <c r="N9" s="2">
-        <v>45625</v>
+      <c r="N9" s="3">
+        <v>45652</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
+      <c r="B10">
+        <v>95455469903</v>
       </c>
       <c r="C10" s="2">
-        <v>45675.198125397546</v>
+        <v>45671.202905051912</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K10">
         <v>1234</v>
       </c>
-      <c r="N10" s="2">
-        <v>45601</v>
+      <c r="N10" s="3">
+        <v>45664</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>14</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
+      <c r="B11">
+        <v>95455910149</v>
       </c>
       <c r="C11" s="2">
-        <v>45672.198125397546</v>
+        <v>45681.041921255623</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="J11" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K11">
         <v>1337</v>
       </c>
-      <c r="N11" s="2">
-        <v>45610</v>
+      <c r="N11" s="3">
+        <v>45654</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
+      <c r="B12">
+        <v>95453980367</v>
       </c>
       <c r="C12" s="2">
-        <v>45674.198125397546</v>
+        <v>45680.584282366734</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K12">
         <v>1362</v>
       </c>
-      <c r="N12" s="2">
-        <v>45538</v>
+      <c r="N12" s="3">
+        <v>45652</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" t="s">
-        <v>26</v>
+      <c r="B13">
+        <v>95454027018</v>
       </c>
       <c r="C13" s="2">
-        <v>45673.198125397546</v>
+        <v>45676.819756903758</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K13">
         <v>1362</v>
       </c>
-      <c r="N13" s="2">
-        <v>45539</v>
+      <c r="N13" s="3">
+        <v>45650</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14">
+        <v>95454446180</v>
+      </c>
+      <c r="C14" s="2">
+        <v>45672.38618051487</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="2">
-        <v>45676.198125397546</v>
-      </c>
-      <c r="F14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s">
-        <v>64</v>
-      </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K14">
         <v>1398</v>
       </c>
-      <c r="N14" s="2">
-        <v>45558</v>
+      <c r="N14" s="3">
+        <v>45660</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>28</v>
+      <c r="B15">
+        <v>95455842840</v>
       </c>
       <c r="C15" s="2">
-        <v>45677.198125397546</v>
+        <v>45677.76462958895</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K15">
         <v>1417</v>
       </c>
-      <c r="N15" s="2">
-        <v>45608</v>
+      <c r="N15" s="3">
+        <v>45662</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>29</v>
+      <c r="B16">
+        <v>95455569417</v>
       </c>
       <c r="C16" s="2">
-        <v>45675.198125397546</v>
+        <v>45671.947465237092</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="J16" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K16">
         <v>1433</v>
       </c>
-      <c r="N16" s="2">
-        <v>45597</v>
+      <c r="N16" s="3">
+        <v>45669</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>14</v>
       </c>
-      <c r="B17" t="s">
-        <v>30</v>
+      <c r="B17">
+        <v>95454853452</v>
       </c>
       <c r="C17" s="2">
-        <v>45673.198125397546</v>
+        <v>45680.322164311168</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="J17" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K17">
         <v>1461</v>
       </c>
-      <c r="N17" s="2">
-        <v>45572</v>
+      <c r="N17" s="3">
+        <v>45667</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
+      <c r="B18">
+        <v>95454268554</v>
       </c>
       <c r="C18" s="2">
-        <v>45677.198125397546</v>
+        <v>45681.216157366733</v>
       </c>
       <c r="F18" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K18">
         <v>1689</v>
       </c>
-      <c r="N18" s="2">
-        <v>45555</v>
+      <c r="N18" s="3">
+        <v>45670</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" t="s">
-        <v>32</v>
+      <c r="B19">
+        <v>95454606631</v>
       </c>
       <c r="C19" s="2">
-        <v>45671.198125397546</v>
+        <v>45677.508599496352</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K19">
         <v>1689</v>
       </c>
-      <c r="N19" s="2">
-        <v>45560</v>
+      <c r="N19" s="3">
+        <v>45656</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>14</v>
       </c>
-      <c r="B20" t="s">
-        <v>33</v>
+      <c r="B20">
+        <v>95454848436</v>
       </c>
       <c r="C20" s="2">
-        <v>45672.198125397546</v>
+        <v>45672.042893477839</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K20">
         <v>1689</v>
       </c>
-      <c r="N20" s="2">
-        <v>45569</v>
+      <c r="N20" s="3">
+        <v>45663</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
-        <v>34</v>
+      <c r="B21">
+        <v>95456230033</v>
       </c>
       <c r="C21" s="2">
-        <v>45676.198125397546</v>
+        <v>45678.367812459321</v>
       </c>
       <c r="F21" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K21">
         <v>1689</v>
       </c>
-      <c r="N21" s="2">
-        <v>45624</v>
+      <c r="N21" s="3">
+        <v>45658</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>35</v>
+      <c r="B22">
+        <v>95456259532</v>
       </c>
       <c r="C22" s="2">
-        <v>45675.198125397546</v>
+        <v>45682.339953663017</v>
       </c>
       <c r="F22" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K22">
         <v>1689</v>
       </c>
-      <c r="N22" s="2">
-        <v>45625</v>
+      <c r="N22" s="3">
+        <v>45661</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>14</v>
       </c>
-      <c r="B23" t="s">
-        <v>36</v>
+      <c r="B23">
+        <v>95456370439</v>
       </c>
       <c r="C23" s="2">
-        <v>45671.198125397546</v>
+        <v>45679.567893477833</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K23">
         <v>1689</v>
       </c>
+      <c r="N23" s="3">
+        <v>45661</v>
+      </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
-        <v>37</v>
+      <c r="B24">
+        <v>95456362908</v>
       </c>
       <c r="C24" s="2">
-        <v>45675.198125397546</v>
+        <v>45675.38444440376</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J24" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K24">
         <v>1689</v>
       </c>
-      <c r="N24" s="2">
-        <v>45630</v>
+      <c r="N24" s="3">
+        <v>45662</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>14</v>
       </c>
-      <c r="B25" t="s">
-        <v>38</v>
+      <c r="B25">
+        <v>95456015087</v>
       </c>
       <c r="C25" s="2">
-        <v>45673.198125397546</v>
+        <v>45678.265786996351</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="J25" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K25">
         <v>1718</v>
       </c>
+      <c r="N25" s="3">
+        <v>45656</v>
+      </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>14</v>
       </c>
-      <c r="B26" t="s">
-        <v>39</v>
+      <c r="B26">
+        <v>95456107073</v>
       </c>
       <c r="C26" s="2">
-        <v>45675.198125397546</v>
+        <v>45679.026411996347</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K26">
         <v>1718</v>
       </c>
+      <c r="N26" s="3">
+        <v>45664</v>
+      </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>14</v>
       </c>
-      <c r="B27" t="s">
-        <v>40</v>
+      <c r="B27">
+        <v>95454304986</v>
       </c>
       <c r="C27" s="2">
-        <v>45675.198125397546</v>
+        <v>45672.031898107467</v>
       </c>
       <c r="F27" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="J27" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K27">
         <v>1720</v>
       </c>
-      <c r="N27" s="2">
-        <v>45548</v>
+      <c r="N27" s="3">
+        <v>45666</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" t="s">
-        <v>41</v>
+      <c r="B28">
+        <v>95454481592</v>
       </c>
       <c r="C28" s="2">
-        <v>45677.198125397546</v>
+        <v>45681.843807829689</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="J28" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K28">
         <v>1720</v>
       </c>
-      <c r="N28" s="2">
-        <v>45555</v>
+      <c r="N28" s="3">
+        <v>45662</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>14</v>
       </c>
-      <c r="B29" t="s">
-        <v>42</v>
+      <c r="B29">
+        <v>95455403552</v>
       </c>
       <c r="C29" s="2">
-        <v>45673.198125397546</v>
+        <v>45684.024050885237</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G29" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J29" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K29">
         <v>1752</v>
       </c>
-      <c r="N29" s="2">
-        <v>45594</v>
+      <c r="N29" s="3">
+        <v>45652</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>14</v>
       </c>
-      <c r="B30" t="s">
-        <v>43</v>
+      <c r="B30">
+        <v>95455144918</v>
       </c>
       <c r="C30" s="2">
-        <v>45671.198125397546</v>
+        <v>45683.230856440801</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J30" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K30">
         <v>1757</v>
       </c>
-      <c r="N30" s="2">
-        <v>45581</v>
+      <c r="N30" s="3">
+        <v>45660</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>14</v>
       </c>
-      <c r="B31" t="s">
-        <v>44</v>
+      <c r="B31">
+        <v>95456111772</v>
       </c>
       <c r="C31" s="2">
-        <v>45675.198125397546</v>
+        <v>45681.55296292228</v>
       </c>
       <c r="F31" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G31" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="J31" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K31">
         <v>1762</v>
       </c>
-      <c r="N31" s="2">
-        <v>45618</v>
+      <c r="N31" s="3">
+        <v>45660</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>14</v>
       </c>
-      <c r="B32" t="s">
-        <v>45</v>
+      <c r="B32">
+        <v>95454884379</v>
       </c>
       <c r="C32" s="2">
-        <v>45672.198125397546</v>
+        <v>45680.819351811173</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G32" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K32">
         <v>1764</v>
       </c>
-      <c r="N32" s="2">
-        <v>45572</v>
+      <c r="N32" s="3">
+        <v>45670</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>14</v>
       </c>
-      <c r="B33" t="s">
-        <v>46</v>
+      <c r="B33">
+        <v>95454445491</v>
       </c>
       <c r="C33" s="2">
-        <v>45672.198125397546</v>
+        <v>45679.403773107457</v>
       </c>
       <c r="F33" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G33" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="J33" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K33">
         <v>1776</v>
       </c>
-      <c r="N33" s="2">
-        <v>45554</v>
+      <c r="N33" s="3">
+        <v>45670</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>14</v>
       </c>
-      <c r="B34" t="s">
-        <v>47</v>
+      <c r="B34">
+        <v>95455289041</v>
       </c>
       <c r="C34" s="2">
-        <v>45671.198125397546</v>
+        <v>45672.239282366732</v>
       </c>
       <c r="F34" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K34">
         <v>1784</v>
       </c>
-      <c r="N34" s="2">
-        <v>45587</v>
+      <c r="N34" s="3">
+        <v>45660</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="B35" t="s">
-        <v>48</v>
+      <c r="B35">
+        <v>95454677568</v>
       </c>
       <c r="C35" s="2">
-        <v>45677.198125397546</v>
+        <v>45678.478391163022</v>
       </c>
       <c r="F35" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G35" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K35">
         <v>1811</v>
       </c>
-      <c r="N35" s="2">
-        <v>45562</v>
+      <c r="N35" s="3">
+        <v>45666</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>14</v>
       </c>
-      <c r="B36" t="s">
-        <v>49</v>
+      <c r="B36">
+        <v>95454681603</v>
       </c>
       <c r="C36" s="2">
-        <v>45671.198125397546</v>
+        <v>45684.770960607457</v>
       </c>
       <c r="F36" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K36">
         <v>1811</v>
       </c>
-      <c r="N36" s="2">
-        <v>45562</v>
+      <c r="N36" s="3">
+        <v>45660</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>14</v>
       </c>
-      <c r="B37" t="s">
-        <v>50</v>
+      <c r="B37">
+        <v>95453951698</v>
       </c>
       <c r="C37" s="2">
-        <v>45673.198125397546</v>
+        <v>45680.678078663019</v>
       </c>
       <c r="F37" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G37" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="J37" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K37">
         <v>1812</v>
       </c>
-      <c r="N37" s="2">
-        <v>45537</v>
+      <c r="N37" s="3">
+        <v>45669</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>14</v>
       </c>
-      <c r="B38" t="s">
-        <v>51</v>
+      <c r="B38">
+        <v>95454186136</v>
       </c>
       <c r="C38" s="2">
-        <v>45675.198125397546</v>
+        <v>45679.208136533387</v>
       </c>
       <c r="F38" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="J38" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K38">
         <v>1817</v>
       </c>
-      <c r="N38" s="2">
-        <v>45554</v>
+      <c r="N38" s="3">
+        <v>45654</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>14</v>
       </c>
-      <c r="B39" t="s">
-        <v>52</v>
+      <c r="B39">
+        <v>95455970392</v>
       </c>
       <c r="C39" s="2">
-        <v>45672.198125397546</v>
+        <v>45677.437476811167</v>
       </c>
       <c r="F39" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="J39" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K39">
         <v>1830</v>
       </c>
-      <c r="N39" s="2">
-        <v>45614</v>
+      <c r="N39" s="3">
+        <v>45667</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>14</v>
       </c>
-      <c r="B40" t="s">
-        <v>53</v>
+      <c r="B40">
+        <v>95454524412</v>
       </c>
       <c r="C40" s="2">
-        <v>45672.198125397546</v>
+        <v>45674.455682829677</v>
       </c>
       <c r="F40" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K40">
         <v>1913</v>
       </c>
-      <c r="N40" s="2">
-        <v>45559</v>
+      <c r="N40" s="3">
+        <v>45669</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>14</v>
       </c>
-      <c r="B41" t="s">
-        <v>54</v>
+      <c r="B41">
+        <v>95454611923</v>
       </c>
       <c r="C41" s="2">
-        <v>45676.198125397546</v>
+        <v>45679.135705977838</v>
       </c>
       <c r="F41" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="G41" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="J41" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="K41">
         <v>2017</v>
       </c>
-      <c r="N41" s="2">
-        <v>45560</v>
+      <c r="N41" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>95455973059</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45679.309166625993</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" t="s">
+        <v>142</v>
+      </c>
+      <c r="K42">
+        <v>2028</v>
+      </c>
+      <c r="N42" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>95456019225</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45678.623657366727</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="J43" t="s">
+        <v>142</v>
+      </c>
+      <c r="K43">
+        <v>2028</v>
+      </c>
+      <c r="N43" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44">
+        <v>95455045556</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45672.76936338524</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" t="s">
+        <v>142</v>
+      </c>
+      <c r="K44">
+        <v>2033</v>
+      </c>
+      <c r="N44" s="3">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>95455870513</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45671.608865700058</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" t="s">
+        <v>142</v>
+      </c>
+      <c r="K45">
+        <v>2033</v>
+      </c>
+      <c r="N45" s="3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46">
+        <v>95455874437</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45684.483865700058</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" t="s">
+        <v>142</v>
+      </c>
+      <c r="K46">
+        <v>2055</v>
+      </c>
+      <c r="N46" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47">
+        <v>95454674055</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45676.018865700047</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="J47" t="s">
+        <v>142</v>
+      </c>
+      <c r="K47">
+        <v>2063</v>
+      </c>
+      <c r="N47" s="3">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48">
+        <v>95454266052</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45683.201238385242</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="J48" t="s">
+        <v>142</v>
+      </c>
+      <c r="K48">
+        <v>2067</v>
+      </c>
+      <c r="N48" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A49" t="s">
+        <v>14</v>
+      </c>
+      <c r="B49">
+        <v>95454450461</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45684.760532366723</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="J49" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49">
+        <v>2067</v>
+      </c>
+      <c r="N49" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50">
+        <v>95455939806</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45684.630150422279</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s">
+        <v>40</v>
+      </c>
+      <c r="J50" t="s">
+        <v>142</v>
+      </c>
+      <c r="K50">
+        <v>2107</v>
+      </c>
+      <c r="N50" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>95456300595</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45680.410567088948</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" t="s">
+        <v>142</v>
+      </c>
+      <c r="K51">
+        <v>2114</v>
+      </c>
+      <c r="N51" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>95456369185</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45683.755266163018</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>47</v>
+      </c>
+      <c r="J52" t="s">
+        <v>142</v>
+      </c>
+      <c r="K52">
+        <v>2125</v>
+      </c>
+      <c r="N52" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>95455699194</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45681.018171255622</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" t="s">
+        <v>142</v>
+      </c>
+      <c r="K53">
+        <v>2189</v>
+      </c>
+      <c r="N53" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>95454143989</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45679.880185144502</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J54" t="s">
+        <v>142</v>
+      </c>
+      <c r="K54">
+        <v>2262</v>
+      </c>
+      <c r="N54" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A55" t="s">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>95454489437</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45684.15993051487</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" t="s">
+        <v>142</v>
+      </c>
+      <c r="K55">
+        <v>2262</v>
+      </c>
+      <c r="N55" s="3">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A56" t="s">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>95454565381</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45677.966411996364</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" t="s">
+        <v>142</v>
+      </c>
+      <c r="K56">
+        <v>2262</v>
+      </c>
+      <c r="N56" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A57" t="s">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>95454569123</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45684.25850690376</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" t="s">
+        <v>142</v>
+      </c>
+      <c r="K57">
+        <v>2262</v>
+      </c>
+      <c r="N57" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A58" t="s">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>95454559079</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45674.563599496352</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" t="s">
+        <v>142</v>
+      </c>
+      <c r="K58">
+        <v>2262</v>
+      </c>
+      <c r="N58" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A59" t="s">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <v>95454919031</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45678.962430514883</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>50</v>
+      </c>
+      <c r="J59" t="s">
+        <v>142</v>
+      </c>
+      <c r="K59">
+        <v>2262</v>
+      </c>
+      <c r="N59" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <v>95454999436</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45677.952071718573</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60" t="s">
+        <v>142</v>
+      </c>
+      <c r="K60">
+        <v>2262</v>
+      </c>
+      <c r="N60" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A61" t="s">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>95454996609</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45675.499768477843</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="J61" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61">
+        <v>2262</v>
+      </c>
+      <c r="N61" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A62" t="s">
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <v>95455066795</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45673.211180514867</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>48</v>
+      </c>
+      <c r="J62" t="s">
+        <v>142</v>
+      </c>
+      <c r="K62">
+        <v>2262</v>
+      </c>
+      <c r="N62" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A63" t="s">
+        <v>14</v>
+      </c>
+      <c r="B63">
+        <v>95455247695</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45674.577060144496</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="J63" t="s">
+        <v>142</v>
+      </c>
+      <c r="K63">
+        <v>2262</v>
+      </c>
+      <c r="N63" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A64" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64">
+        <v>95455360531</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45679.608402737103</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>48</v>
+      </c>
+      <c r="J64" t="s">
+        <v>142</v>
+      </c>
+      <c r="K64">
+        <v>2262</v>
+      </c>
+      <c r="N64" s="3">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A65" t="s">
+        <v>14</v>
+      </c>
+      <c r="B65">
+        <v>95455360423</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45680.307013848207</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>48</v>
+      </c>
+      <c r="J65" t="s">
+        <v>142</v>
+      </c>
+      <c r="K65">
+        <v>2262</v>
+      </c>
+      <c r="N65" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A66" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66">
+        <v>95455361480</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45681.321226811167</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>48</v>
+      </c>
+      <c r="J66" t="s">
+        <v>142</v>
+      </c>
+      <c r="K66">
+        <v>2262</v>
+      </c>
+      <c r="N66" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A67" t="s">
+        <v>14</v>
+      </c>
+      <c r="B67">
+        <v>95455629719</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45679.53907403339</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="J67" t="s">
+        <v>142</v>
+      </c>
+      <c r="K67">
+        <v>2262</v>
+      </c>
+      <c r="N67" s="3">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>95455633521</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45673.236643477838</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s">
+        <v>48</v>
+      </c>
+      <c r="J68" t="s">
+        <v>142</v>
+      </c>
+      <c r="K68">
+        <v>2262</v>
+      </c>
+      <c r="N68" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A69" t="s">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <v>95455842490</v>
+      </c>
+      <c r="C69" s="2">
+        <v>45680.850914311173</v>
+      </c>
+      <c r="F69" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" t="s">
+        <v>48</v>
+      </c>
+      <c r="J69" t="s">
+        <v>142</v>
+      </c>
+      <c r="K69">
+        <v>2262</v>
+      </c>
+      <c r="N69" s="3">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A70" t="s">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>95455874010</v>
+      </c>
+      <c r="C70" s="2">
+        <v>45672.301388848209</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s">
+        <v>48</v>
+      </c>
+      <c r="J70" t="s">
+        <v>142</v>
+      </c>
+      <c r="K70">
+        <v>2262</v>
+      </c>
+      <c r="N70" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>95455907388</v>
+      </c>
+      <c r="C71" s="2">
+        <v>45682.459618014873</v>
+      </c>
+      <c r="F71" t="s">
+        <v>18</v>
+      </c>
+      <c r="G71" t="s">
+        <v>49</v>
+      </c>
+      <c r="J71" t="s">
+        <v>142</v>
+      </c>
+      <c r="K71">
+        <v>2262</v>
+      </c>
+      <c r="N71" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A72" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>95455944593</v>
+      </c>
+      <c r="C72" s="2">
+        <v>45673.504212922278</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s">
+        <v>142</v>
+      </c>
+      <c r="K72">
+        <v>2262</v>
+      </c>
+      <c r="N72" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A73" t="s">
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>95455937905</v>
+      </c>
+      <c r="C73" s="2">
+        <v>45675.884560144499</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" t="s">
+        <v>51</v>
+      </c>
+      <c r="J73" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73">
+        <v>2262</v>
+      </c>
+      <c r="N73" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A74" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <v>95456081108</v>
+      </c>
+      <c r="C74" s="2">
+        <v>45680.838888848208</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s">
+        <v>48</v>
+      </c>
+      <c r="J74" t="s">
+        <v>142</v>
+      </c>
+      <c r="K74">
+        <v>2262</v>
+      </c>
+      <c r="N74" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A75" t="s">
+        <v>14</v>
+      </c>
+      <c r="B75">
+        <v>95456014216</v>
+      </c>
+      <c r="C75" s="2">
+        <v>45684.796793940797</v>
+      </c>
+      <c r="F75" t="s">
+        <v>18</v>
+      </c>
+      <c r="G75" t="s">
+        <v>48</v>
+      </c>
+      <c r="J75" t="s">
+        <v>142</v>
+      </c>
+      <c r="K75">
+        <v>2262</v>
+      </c>
+      <c r="N75" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A76" t="s">
+        <v>14</v>
+      </c>
+      <c r="B76">
+        <v>95456364894</v>
+      </c>
+      <c r="C76" s="2">
+        <v>45684.766030051913</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s">
+        <v>48</v>
+      </c>
+      <c r="J76" t="s">
+        <v>142</v>
+      </c>
+      <c r="K76">
+        <v>2262</v>
+      </c>
+      <c r="N76" s="3">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A77" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>95456145013</v>
+      </c>
+      <c r="C77" s="2">
+        <v>45684.857800885242</v>
+      </c>
+      <c r="F77" t="s">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s">
+        <v>52</v>
+      </c>
+      <c r="J77" t="s">
+        <v>142</v>
+      </c>
+      <c r="K77">
+        <v>2447</v>
+      </c>
+      <c r="N77" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A78" t="s">
+        <v>14</v>
+      </c>
+      <c r="B78">
+        <v>95456232747</v>
+      </c>
+      <c r="C78" s="2">
+        <v>45683.337661996353</v>
+      </c>
+      <c r="F78" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s">
+        <v>52</v>
+      </c>
+      <c r="J78" t="s">
+        <v>142</v>
+      </c>
+      <c r="K78">
+        <v>2447</v>
+      </c>
+      <c r="N78" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A79" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>95455073412</v>
+      </c>
+      <c r="C79" s="2">
+        <v>45680.357951348196</v>
+      </c>
+      <c r="F79" t="s">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s">
+        <v>53</v>
+      </c>
+      <c r="J79" t="s">
+        <v>142</v>
+      </c>
+      <c r="K79">
+        <v>2455</v>
+      </c>
+      <c r="N79" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A80" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>95455099099</v>
+      </c>
+      <c r="C80" s="2">
+        <v>45679.357141163018</v>
+      </c>
+      <c r="F80" t="s">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s">
+        <v>54</v>
+      </c>
+      <c r="J80" t="s">
+        <v>142</v>
+      </c>
+      <c r="K80">
+        <v>2455</v>
+      </c>
+      <c r="N80" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A81" t="s">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>95455364326</v>
+      </c>
+      <c r="C81" s="2">
+        <v>45674.81344903339</v>
+      </c>
+      <c r="F81" t="s">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s">
+        <v>40</v>
+      </c>
+      <c r="J81" t="s">
+        <v>142</v>
+      </c>
+      <c r="K81">
+        <v>2455</v>
+      </c>
+      <c r="N81" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>95455767843</v>
+      </c>
+      <c r="C82" s="2">
+        <v>45681.827951348198</v>
+      </c>
+      <c r="F82" t="s">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s">
+        <v>55</v>
+      </c>
+      <c r="J82" t="s">
+        <v>142</v>
+      </c>
+      <c r="K82">
+        <v>2455</v>
+      </c>
+      <c r="N82" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <v>95454304274</v>
+      </c>
+      <c r="C83" s="2">
+        <v>45685.105428200062</v>
+      </c>
+      <c r="F83" t="s">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="J83" t="s">
+        <v>142</v>
+      </c>
+      <c r="K83">
+        <v>2487</v>
+      </c>
+      <c r="N83" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <v>95455877832</v>
+      </c>
+      <c r="C84" s="2">
+        <v>45684.48337958895</v>
+      </c>
+      <c r="F84" t="s">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s">
+        <v>27</v>
+      </c>
+      <c r="J84" t="s">
+        <v>142</v>
+      </c>
+      <c r="K84">
+        <v>2489</v>
+      </c>
+      <c r="N84" s="3">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>95454491733</v>
+      </c>
+      <c r="C85" s="2">
+        <v>45680.775532366722</v>
+      </c>
+      <c r="F85" t="s">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s">
+        <v>56</v>
+      </c>
+      <c r="J85" t="s">
+        <v>142</v>
+      </c>
+      <c r="K85">
+        <v>2504</v>
+      </c>
+      <c r="N85" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <v>95454563457</v>
+      </c>
+      <c r="C86" s="2">
+        <v>45680.78156245932</v>
+      </c>
+      <c r="F86" t="s">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s">
+        <v>56</v>
+      </c>
+      <c r="J86" t="s">
+        <v>142</v>
+      </c>
+      <c r="K86">
+        <v>2504</v>
+      </c>
+      <c r="N86" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>95455258368</v>
+      </c>
+      <c r="C87" s="2">
+        <v>45672.212372644499</v>
+      </c>
+      <c r="F87" t="s">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s">
+        <v>57</v>
+      </c>
+      <c r="J87" t="s">
+        <v>142</v>
+      </c>
+      <c r="K87">
+        <v>2504</v>
+      </c>
+      <c r="N87" s="3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88">
+        <v>95456233049</v>
+      </c>
+      <c r="C88" s="2">
+        <v>45683.294965237103</v>
+      </c>
+      <c r="F88" t="s">
+        <v>19</v>
+      </c>
+      <c r="G88" t="s">
+        <v>40</v>
+      </c>
+      <c r="J88" t="s">
+        <v>142</v>
+      </c>
+      <c r="K88">
+        <v>2504</v>
+      </c>
+      <c r="N88" s="3">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>14</v>
+      </c>
+      <c r="B89">
+        <v>95456366551</v>
+      </c>
+      <c r="C89" s="2">
+        <v>45675.260196718576</v>
+      </c>
+      <c r="F89" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s">
+        <v>58</v>
+      </c>
+      <c r="J89" t="s">
+        <v>142</v>
+      </c>
+      <c r="K89">
+        <v>2504</v>
+      </c>
+      <c r="N89" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>14</v>
+      </c>
+      <c r="B90">
+        <v>95455543076</v>
+      </c>
+      <c r="C90" s="2">
+        <v>45682.772499959319</v>
+      </c>
+      <c r="F90" t="s">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s">
+        <v>31</v>
+      </c>
+      <c r="J90" t="s">
+        <v>142</v>
+      </c>
+      <c r="K90">
+        <v>2505</v>
+      </c>
+      <c r="N90" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>14</v>
+      </c>
+      <c r="B91">
+        <v>95455704138</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45677.866493014873</v>
+      </c>
+      <c r="F91" t="s">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s">
+        <v>40</v>
+      </c>
+      <c r="J91" t="s">
+        <v>142</v>
+      </c>
+      <c r="K91">
+        <v>2505</v>
+      </c>
+      <c r="N91" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92">
+        <v>95455805487</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45683.11714116302</v>
+      </c>
+      <c r="F92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s">
+        <v>40</v>
+      </c>
+      <c r="J92" t="s">
+        <v>142</v>
+      </c>
+      <c r="K92">
+        <v>2505</v>
+      </c>
+      <c r="N92" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>14</v>
+      </c>
+      <c r="B93">
+        <v>95454849665</v>
+      </c>
+      <c r="C93" s="2">
+        <v>45672.425636533393</v>
+      </c>
+      <c r="F93" t="s">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s">
+        <v>59</v>
+      </c>
+      <c r="J93" t="s">
+        <v>142</v>
+      </c>
+      <c r="K93">
+        <v>2540</v>
+      </c>
+      <c r="N93" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94">
+        <v>95454182095</v>
+      </c>
+      <c r="C94" s="2">
+        <v>45676.557847181539</v>
+      </c>
+      <c r="F94" t="s">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s">
+        <v>60</v>
+      </c>
+      <c r="J94" t="s">
+        <v>142</v>
+      </c>
+      <c r="K94">
+        <v>2553</v>
+      </c>
+      <c r="N94" s="3">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>14</v>
+      </c>
+      <c r="B95">
+        <v>95455286912</v>
+      </c>
+      <c r="C95" s="2">
+        <v>45680.780543940797</v>
+      </c>
+      <c r="F95" t="s">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s">
+        <v>61</v>
+      </c>
+      <c r="J95" t="s">
+        <v>142</v>
+      </c>
+      <c r="K95">
+        <v>2559</v>
+      </c>
+      <c r="N95" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>14</v>
+      </c>
+      <c r="B96">
+        <v>95454885236</v>
+      </c>
+      <c r="C96" s="2">
+        <v>45680.327939774143</v>
+      </c>
+      <c r="F96" t="s">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="J96" t="s">
+        <v>142</v>
+      </c>
+      <c r="K96">
+        <v>2560</v>
+      </c>
+      <c r="N96" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>14</v>
+      </c>
+      <c r="B97">
+        <v>95453978790</v>
+      </c>
+      <c r="C97" s="2">
+        <v>45676.144259218578</v>
+      </c>
+      <c r="F97" t="s">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s">
+        <v>27</v>
+      </c>
+      <c r="J97" t="s">
+        <v>142</v>
+      </c>
+      <c r="K97">
+        <v>2578</v>
+      </c>
+      <c r="N97" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>14</v>
+      </c>
+      <c r="B98">
+        <v>95455606816</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45683.171909681543</v>
+      </c>
+      <c r="F98" t="s">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s">
+        <v>31</v>
+      </c>
+      <c r="J98" t="s">
+        <v>142</v>
+      </c>
+      <c r="K98">
+        <v>2578</v>
+      </c>
+      <c r="N98" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99">
+        <v>95455802159</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45672.327777737097</v>
+      </c>
+      <c r="F99" t="s">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s">
+        <v>31</v>
+      </c>
+      <c r="J99" t="s">
+        <v>142</v>
+      </c>
+      <c r="K99">
+        <v>2578</v>
+      </c>
+      <c r="N99" s="3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>14</v>
+      </c>
+      <c r="B100">
+        <v>95455834914</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45672.91229162598</v>
+      </c>
+      <c r="F100" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s">
+        <v>31</v>
+      </c>
+      <c r="J100" t="s">
+        <v>142</v>
+      </c>
+      <c r="K100">
+        <v>2578</v>
+      </c>
+      <c r="N100" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101">
+        <v>95454184717</v>
+      </c>
+      <c r="C101" s="2">
+        <v>45682.921180514873</v>
+      </c>
+      <c r="F101" t="s">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s">
+        <v>62</v>
+      </c>
+      <c r="J101" t="s">
+        <v>142</v>
+      </c>
+      <c r="K101">
+        <v>2592</v>
+      </c>
+      <c r="N101" s="3">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>14</v>
+      </c>
+      <c r="B102">
+        <v>95454456178</v>
+      </c>
+      <c r="C102" s="2">
+        <v>45682.822141163022</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s">
+        <v>62</v>
+      </c>
+      <c r="J102" t="s">
+        <v>142</v>
+      </c>
+      <c r="K102">
+        <v>2592</v>
+      </c>
+      <c r="N102" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>14</v>
+      </c>
+      <c r="B103">
+        <v>95455734418</v>
+      </c>
+      <c r="C103" s="2">
+        <v>45679.644895792648</v>
+      </c>
+      <c r="F103" t="s">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s">
+        <v>63</v>
+      </c>
+      <c r="J103" t="s">
+        <v>142</v>
+      </c>
+      <c r="K103">
+        <v>2603</v>
+      </c>
+      <c r="N103" s="3">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>14</v>
+      </c>
+      <c r="B104">
+        <v>95455841873</v>
+      </c>
+      <c r="C104" s="2">
+        <v>45673.239652737087</v>
+      </c>
+      <c r="F104" t="s">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s">
+        <v>63</v>
+      </c>
+      <c r="J104" t="s">
+        <v>142</v>
+      </c>
+      <c r="K104">
+        <v>2603</v>
+      </c>
+      <c r="N104" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105">
+        <v>95455906818</v>
+      </c>
+      <c r="C105" s="2">
+        <v>45675.238900422279</v>
+      </c>
+      <c r="F105" t="s">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s">
+        <v>45</v>
+      </c>
+      <c r="J105" t="s">
+        <v>142</v>
+      </c>
+      <c r="K105">
+        <v>2614</v>
+      </c>
+      <c r="N105" s="3">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>14</v>
+      </c>
+      <c r="B106">
+        <v>95455974117</v>
+      </c>
+      <c r="C106" s="2">
+        <v>45675.409641163023</v>
+      </c>
+      <c r="F106" t="s">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s">
+        <v>24</v>
+      </c>
+      <c r="J106" t="s">
+        <v>142</v>
+      </c>
+      <c r="K106">
+        <v>2622</v>
+      </c>
+      <c r="N106" s="3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>14</v>
+      </c>
+      <c r="B107">
+        <v>95456336808</v>
+      </c>
+      <c r="C107" s="2">
+        <v>45674.086585607467</v>
+      </c>
+      <c r="F107" t="s">
+        <v>19</v>
+      </c>
+      <c r="G107" t="s">
+        <v>40</v>
+      </c>
+      <c r="J107" t="s">
+        <v>142</v>
+      </c>
+      <c r="K107">
+        <v>2622</v>
+      </c>
+      <c r="N107" s="3">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>14</v>
+      </c>
+      <c r="B108">
+        <v>95455071549</v>
+      </c>
+      <c r="C108" s="2">
+        <v>45672.191828663017</v>
+      </c>
+      <c r="F108" t="s">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s">
+        <v>64</v>
+      </c>
+      <c r="J108" t="s">
+        <v>142</v>
+      </c>
+      <c r="K108">
+        <v>2635</v>
+      </c>
+      <c r="N108" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>14</v>
+      </c>
+      <c r="B109">
+        <v>95454446423</v>
+      </c>
+      <c r="C109" s="2">
+        <v>45677.203205977843</v>
+      </c>
+      <c r="F109" t="s">
+        <v>19</v>
+      </c>
+      <c r="G109" t="s">
+        <v>65</v>
+      </c>
+      <c r="J109" t="s">
+        <v>142</v>
+      </c>
+      <c r="K109">
+        <v>2639</v>
+      </c>
+      <c r="N109" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>14</v>
+      </c>
+      <c r="B110">
+        <v>95454449823</v>
+      </c>
+      <c r="C110" s="2">
+        <v>45677.552036996363</v>
+      </c>
+      <c r="F110" t="s">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>24</v>
+      </c>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+      <c r="K110">
+        <v>2643</v>
+      </c>
+      <c r="N110" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>14</v>
+      </c>
+      <c r="B111">
+        <v>95456143256</v>
+      </c>
+      <c r="C111" s="2">
+        <v>45674.695092551912</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>66</v>
+      </c>
+      <c r="J111" t="s">
+        <v>142</v>
+      </c>
+      <c r="K111">
+        <v>2710</v>
+      </c>
+      <c r="N111" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112">
+        <v>95455362669</v>
+      </c>
+      <c r="C112" s="2">
+        <v>45679.021550885242</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
+        <v>67</v>
+      </c>
+      <c r="J112" t="s">
+        <v>142</v>
+      </c>
+      <c r="K112">
+        <v>2713</v>
+      </c>
+      <c r="N112" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113">
+        <v>95453959132</v>
+      </c>
+      <c r="C113" s="2">
+        <v>45678.064398107468</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>68</v>
+      </c>
+      <c r="J113" t="s">
+        <v>142</v>
+      </c>
+      <c r="K113">
+        <v>2742</v>
+      </c>
+      <c r="N113" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114">
+        <v>95454268110</v>
+      </c>
+      <c r="C114" s="2">
+        <v>45679.546504588943</v>
+      </c>
+      <c r="F114" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
+        <v>24</v>
+      </c>
+      <c r="J114" t="s">
+        <v>142</v>
+      </c>
+      <c r="K114">
+        <v>2750</v>
+      </c>
+      <c r="N114" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115">
+        <v>95454271007</v>
+      </c>
+      <c r="C115" s="2">
+        <v>45673.377453663023</v>
+      </c>
+      <c r="F115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="J115" t="s">
+        <v>142</v>
+      </c>
+      <c r="K115">
+        <v>2750</v>
+      </c>
+      <c r="N115" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116">
+        <v>95454146688</v>
+      </c>
+      <c r="C116" s="2">
+        <v>45672.054629588943</v>
+      </c>
+      <c r="F116" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>39</v>
+      </c>
+      <c r="J116" t="s">
+        <v>142</v>
+      </c>
+      <c r="K116">
+        <v>2756</v>
+      </c>
+      <c r="N116" s="3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117">
+        <v>95454565502</v>
+      </c>
+      <c r="C117" s="2">
+        <v>45676.017650422284</v>
+      </c>
+      <c r="F117" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>39</v>
+      </c>
+      <c r="J117" t="s">
+        <v>142</v>
+      </c>
+      <c r="K117">
+        <v>2756</v>
+      </c>
+      <c r="N117" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118">
+        <v>95454783624</v>
+      </c>
+      <c r="C118" s="2">
+        <v>45672.064247644499</v>
+      </c>
+      <c r="F118" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>69</v>
+      </c>
+      <c r="J118" t="s">
+        <v>142</v>
+      </c>
+      <c r="K118">
+        <v>2763</v>
+      </c>
+      <c r="N118" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119">
+        <v>95454600227</v>
+      </c>
+      <c r="C119" s="2">
+        <v>45672.800138848208</v>
+      </c>
+      <c r="F119" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>43</v>
+      </c>
+      <c r="J119" t="s">
+        <v>142</v>
+      </c>
+      <c r="K119">
+        <v>2766</v>
+      </c>
+      <c r="N119" s="3">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120">
+        <v>95453958183</v>
+      </c>
+      <c r="C120" s="2">
+        <v>45673.418553200063</v>
+      </c>
+      <c r="F120" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" t="s">
+        <v>142</v>
+      </c>
+      <c r="K120">
+        <v>2789</v>
+      </c>
+      <c r="N120" s="3">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121">
+        <v>95455018249</v>
+      </c>
+      <c r="C121" s="2">
+        <v>45679.692303200063</v>
+      </c>
+      <c r="F121" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>70</v>
+      </c>
+      <c r="J121" t="s">
+        <v>142</v>
+      </c>
+      <c r="K121">
+        <v>2789</v>
+      </c>
+      <c r="N121" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122">
+        <v>95455437470</v>
+      </c>
+      <c r="C122" s="2">
+        <v>45673.713749959323</v>
+      </c>
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>71</v>
+      </c>
+      <c r="J122" t="s">
+        <v>142</v>
+      </c>
+      <c r="K122">
+        <v>2790</v>
+      </c>
+      <c r="N122" s="3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123">
+        <v>95454060572</v>
+      </c>
+      <c r="C123" s="2">
+        <v>45681.098761533387</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>72</v>
+      </c>
+      <c r="J123" t="s">
+        <v>142</v>
+      </c>
+      <c r="K123">
+        <v>2792</v>
+      </c>
+      <c r="N123" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124">
+        <v>95455835930</v>
+      </c>
+      <c r="C124" s="2">
+        <v>45683.601458292651</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
+        <v>27</v>
+      </c>
+      <c r="J124" t="s">
+        <v>142</v>
+      </c>
+      <c r="K124">
+        <v>2792</v>
+      </c>
+      <c r="N124" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125">
+        <v>95456230102</v>
+      </c>
+      <c r="C125" s="2">
+        <v>45675.15520829265</v>
+      </c>
+      <c r="F125" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" t="s">
+        <v>73</v>
+      </c>
+      <c r="J125" t="s">
+        <v>142</v>
+      </c>
+      <c r="K125">
+        <v>2799</v>
+      </c>
+      <c r="N125" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126">
+        <v>95455287147</v>
+      </c>
+      <c r="C126" s="2">
+        <v>45672.731458292648</v>
+      </c>
+      <c r="F126" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" t="s">
+        <v>45</v>
+      </c>
+      <c r="J126" t="s">
+        <v>142</v>
+      </c>
+      <c r="K126">
+        <v>2821</v>
+      </c>
+      <c r="N126" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <v>95453957963</v>
+      </c>
+      <c r="C127" s="2">
+        <v>45676.867592551913</v>
+      </c>
+      <c r="F127" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" t="s">
+        <v>74</v>
+      </c>
+      <c r="J127" t="s">
+        <v>142</v>
+      </c>
+      <c r="K127">
+        <v>2841</v>
+      </c>
+      <c r="N127" s="3">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128">
+        <v>95454190199</v>
+      </c>
+      <c r="C128" s="2">
+        <v>45674.978634218583</v>
+      </c>
+      <c r="F128" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" t="s">
+        <v>40</v>
+      </c>
+      <c r="J128" t="s">
+        <v>142</v>
+      </c>
+      <c r="K128">
+        <v>2841</v>
+      </c>
+      <c r="N128" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129">
+        <v>95454564098</v>
+      </c>
+      <c r="C129" s="2">
+        <v>45684.890023107473</v>
+      </c>
+      <c r="F129" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" t="s">
+        <v>75</v>
+      </c>
+      <c r="J129" t="s">
+        <v>142</v>
+      </c>
+      <c r="K129">
+        <v>2841</v>
+      </c>
+      <c r="N129" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130">
+        <v>95456180713</v>
+      </c>
+      <c r="C130" s="2">
+        <v>45683.290810144499</v>
+      </c>
+      <c r="F130" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" t="s">
+        <v>76</v>
+      </c>
+      <c r="J130" t="s">
+        <v>142</v>
+      </c>
+      <c r="K130">
+        <v>2841</v>
+      </c>
+      <c r="N130" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131">
+        <v>95454883369</v>
+      </c>
+      <c r="C131" s="2">
+        <v>45679.595405051907</v>
+      </c>
+      <c r="F131" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" t="s">
+        <v>24</v>
+      </c>
+      <c r="J131" t="s">
+        <v>142</v>
+      </c>
+      <c r="K131">
+        <v>2842</v>
+      </c>
+      <c r="N131" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132">
+        <v>95454559696</v>
+      </c>
+      <c r="C132" s="2">
+        <v>45676.432580977838</v>
+      </c>
+      <c r="F132" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" t="s">
+        <v>77</v>
+      </c>
+      <c r="J132" t="s">
+        <v>142</v>
+      </c>
+      <c r="K132">
+        <v>2844</v>
+      </c>
+      <c r="N132" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133">
+        <v>95454638981</v>
+      </c>
+      <c r="C133" s="2">
+        <v>45676.459791625981</v>
+      </c>
+      <c r="F133" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" t="s">
+        <v>77</v>
+      </c>
+      <c r="J133" t="s">
+        <v>142</v>
+      </c>
+      <c r="K133">
+        <v>2844</v>
+      </c>
+      <c r="N133" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134">
+        <v>95455570877</v>
+      </c>
+      <c r="C134" s="2">
+        <v>45682.094027737097</v>
+      </c>
+      <c r="F134" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" t="s">
+        <v>77</v>
+      </c>
+      <c r="J134" t="s">
+        <v>142</v>
+      </c>
+      <c r="K134">
+        <v>2844</v>
+      </c>
+      <c r="N134" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>14</v>
+      </c>
+      <c r="B135">
+        <v>95454021539</v>
+      </c>
+      <c r="C135" s="2">
+        <v>45683.219490700059</v>
+      </c>
+      <c r="F135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" t="s">
+        <v>78</v>
+      </c>
+      <c r="J135" t="s">
+        <v>142</v>
+      </c>
+      <c r="K135">
+        <v>2849</v>
+      </c>
+      <c r="N135" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>14</v>
+      </c>
+      <c r="B136">
+        <v>95454445364</v>
+      </c>
+      <c r="C136" s="2">
+        <v>45675.881747644496</v>
+      </c>
+      <c r="F136" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" t="s">
+        <v>79</v>
+      </c>
+      <c r="J136" t="s">
+        <v>142</v>
+      </c>
+      <c r="K136">
+        <v>2849</v>
+      </c>
+      <c r="N136" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>14</v>
+      </c>
+      <c r="B137">
+        <v>95454599956</v>
+      </c>
+      <c r="C137" s="2">
+        <v>45676.160335607463</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" t="s">
+        <v>80</v>
+      </c>
+      <c r="J137" t="s">
+        <v>142</v>
+      </c>
+      <c r="K137">
+        <v>2849</v>
+      </c>
+      <c r="N137" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>14</v>
+      </c>
+      <c r="B138">
+        <v>95455037238</v>
+      </c>
+      <c r="C138" s="2">
+        <v>45683.352870329691</v>
+      </c>
+      <c r="F138" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" t="s">
+        <v>81</v>
+      </c>
+      <c r="J138" t="s">
+        <v>142</v>
+      </c>
+      <c r="K138">
+        <v>2851</v>
+      </c>
+      <c r="N138" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>14</v>
+      </c>
+      <c r="B139">
+        <v>95455066056</v>
+      </c>
+      <c r="C139" s="2">
+        <v>45678.744131903761</v>
+      </c>
+      <c r="F139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" t="s">
+        <v>81</v>
+      </c>
+      <c r="J139" t="s">
+        <v>142</v>
+      </c>
+      <c r="K139">
+        <v>2851</v>
+      </c>
+      <c r="N139" s="3">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>14</v>
+      </c>
+      <c r="B140">
+        <v>95455539650</v>
+      </c>
+      <c r="C140" s="2">
+        <v>45673.282152737098</v>
+      </c>
+      <c r="F140" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" t="s">
+        <v>82</v>
+      </c>
+      <c r="J140" t="s">
+        <v>142</v>
+      </c>
+      <c r="K140">
+        <v>2851</v>
+      </c>
+      <c r="N140" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A141" t="s">
+        <v>14</v>
+      </c>
+      <c r="B141">
+        <v>95456177995</v>
+      </c>
+      <c r="C141" s="2">
+        <v>45676.582881903763</v>
+      </c>
+      <c r="F141" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" t="s">
+        <v>23</v>
+      </c>
+      <c r="J141" t="s">
+        <v>142</v>
+      </c>
+      <c r="K141">
+        <v>2852</v>
+      </c>
+      <c r="N141" s="3">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>14</v>
+      </c>
+      <c r="B142">
+        <v>95455397389</v>
+      </c>
+      <c r="C142" s="2">
+        <v>45681.95548607043</v>
+      </c>
+      <c r="F142" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" t="s">
+        <v>24</v>
+      </c>
+      <c r="J142" t="s">
+        <v>142</v>
+      </c>
+      <c r="K142">
+        <v>2866</v>
+      </c>
+      <c r="N142" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>14</v>
+      </c>
+      <c r="B143">
+        <v>95454883953</v>
+      </c>
+      <c r="C143" s="2">
+        <v>45677.421134218574</v>
+      </c>
+      <c r="F143" t="s">
+        <v>21</v>
+      </c>
+      <c r="G143" t="s">
+        <v>83</v>
+      </c>
+      <c r="J143" t="s">
+        <v>142</v>
+      </c>
+      <c r="K143">
+        <v>3024</v>
+      </c>
+      <c r="N143" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>14</v>
+      </c>
+      <c r="B144">
+        <v>95455569002</v>
+      </c>
+      <c r="C144" s="2">
+        <v>45671.26967588524</v>
+      </c>
+      <c r="F144" t="s">
+        <v>21</v>
+      </c>
+      <c r="G144" t="s">
+        <v>84</v>
+      </c>
+      <c r="J144" t="s">
+        <v>142</v>
+      </c>
+      <c r="K144">
+        <v>3039</v>
+      </c>
+      <c r="N144" s="3">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>14</v>
+      </c>
+      <c r="B145">
+        <v>95455323837</v>
+      </c>
+      <c r="C145" s="2">
+        <v>45683.563715237098</v>
+      </c>
+      <c r="F145" t="s">
+        <v>21</v>
+      </c>
+      <c r="G145" t="s">
+        <v>40</v>
+      </c>
+      <c r="J145" t="s">
+        <v>142</v>
+      </c>
+      <c r="K145">
+        <v>3042</v>
+      </c>
+      <c r="N145" s="3">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>14</v>
+      </c>
+      <c r="B146">
+        <v>95456150032</v>
+      </c>
+      <c r="C146" s="2">
+        <v>45683.680543940798</v>
+      </c>
+      <c r="F146" t="s">
+        <v>21</v>
+      </c>
+      <c r="G146" t="s">
+        <v>85</v>
+      </c>
+      <c r="J146" t="s">
+        <v>142</v>
+      </c>
+      <c r="K146">
+        <v>3043</v>
+      </c>
+      <c r="N146" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>14</v>
+      </c>
+      <c r="B147">
+        <v>95455328959</v>
+      </c>
+      <c r="C147" s="2">
+        <v>45678.283414311169</v>
+      </c>
+      <c r="F147" t="s">
+        <v>21</v>
+      </c>
+      <c r="G147" t="s">
+        <v>45</v>
+      </c>
+      <c r="J147" t="s">
+        <v>142</v>
+      </c>
+      <c r="K147">
+        <v>3047</v>
+      </c>
+      <c r="N147" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>14</v>
+      </c>
+      <c r="B148">
+        <v>95454021127</v>
+      </c>
+      <c r="C148" s="2">
+        <v>45679.146111070433</v>
+      </c>
+      <c r="F148" t="s">
+        <v>21</v>
+      </c>
+      <c r="G148" t="s">
+        <v>86</v>
+      </c>
+      <c r="J148" t="s">
+        <v>142</v>
+      </c>
+      <c r="K148">
+        <v>3050</v>
+      </c>
+      <c r="N148" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>14</v>
+      </c>
+      <c r="B149">
+        <v>95454066428</v>
+      </c>
+      <c r="C149" s="2">
+        <v>45671.572939774131</v>
+      </c>
+      <c r="F149" t="s">
+        <v>21</v>
+      </c>
+      <c r="G149" t="s">
+        <v>86</v>
+      </c>
+      <c r="J149" t="s">
+        <v>142</v>
+      </c>
+      <c r="K149">
+        <v>3050</v>
+      </c>
+      <c r="N149" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>14</v>
+      </c>
+      <c r="B150">
+        <v>95454182636</v>
+      </c>
+      <c r="C150" s="2">
+        <v>45680.520879588948</v>
+      </c>
+      <c r="F150" t="s">
+        <v>21</v>
+      </c>
+      <c r="G150" t="s">
+        <v>87</v>
+      </c>
+      <c r="J150" t="s">
+        <v>142</v>
+      </c>
+      <c r="K150">
+        <v>3052</v>
+      </c>
+      <c r="N150" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>14</v>
+      </c>
+      <c r="B151">
+        <v>95453980855</v>
+      </c>
+      <c r="C151" s="2">
+        <v>45681.272384218573</v>
+      </c>
+      <c r="F151" t="s">
+        <v>21</v>
+      </c>
+      <c r="G151" t="s">
+        <v>88</v>
+      </c>
+      <c r="J151" t="s">
+        <v>142</v>
+      </c>
+      <c r="K151">
+        <v>3053</v>
+      </c>
+      <c r="N151" s="3">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>14</v>
+      </c>
+      <c r="B152">
+        <v>95455247840</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45680.851631903759</v>
+      </c>
+      <c r="F152" t="s">
+        <v>21</v>
+      </c>
+      <c r="G152" t="s">
+        <v>45</v>
+      </c>
+      <c r="J152" t="s">
+        <v>142</v>
+      </c>
+      <c r="K152">
+        <v>3057</v>
+      </c>
+      <c r="N152" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>14</v>
+      </c>
+      <c r="B153">
+        <v>95456143075</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45675.633969866722</v>
+      </c>
+      <c r="F153" t="s">
+        <v>21</v>
+      </c>
+      <c r="G153" t="s">
+        <v>89</v>
+      </c>
+      <c r="J153" t="s">
+        <v>142</v>
+      </c>
+      <c r="K153">
+        <v>3058</v>
+      </c>
+      <c r="N153" s="3">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>14</v>
+      </c>
+      <c r="B154">
+        <v>95456301725</v>
+      </c>
+      <c r="C154" s="2">
+        <v>45671.736562459308</v>
+      </c>
+      <c r="F154" t="s">
+        <v>21</v>
+      </c>
+      <c r="G154" t="s">
+        <v>89</v>
+      </c>
+      <c r="J154" t="s">
+        <v>142</v>
+      </c>
+      <c r="K154">
+        <v>3058</v>
+      </c>
+      <c r="N154" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>14</v>
+      </c>
+      <c r="B155">
+        <v>95454601323</v>
+      </c>
+      <c r="C155" s="2">
+        <v>45674.346458292654</v>
+      </c>
+      <c r="F155" t="s">
+        <v>21</v>
+      </c>
+      <c r="G155" t="s">
+        <v>24</v>
+      </c>
+      <c r="J155" t="s">
+        <v>142</v>
+      </c>
+      <c r="K155">
+        <v>3060</v>
+      </c>
+      <c r="N155" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>14</v>
+      </c>
+      <c r="B156">
+        <v>95456180872</v>
+      </c>
+      <c r="C156" s="2">
+        <v>45674.658784681538</v>
+      </c>
+      <c r="F156" t="s">
+        <v>21</v>
+      </c>
+      <c r="G156" t="s">
+        <v>24</v>
+      </c>
+      <c r="J156" t="s">
+        <v>142</v>
+      </c>
+      <c r="K156">
+        <v>3077</v>
+      </c>
+      <c r="N156" s="3">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>14</v>
+      </c>
+      <c r="B157">
+        <v>95454196705</v>
+      </c>
+      <c r="C157" s="2">
+        <v>45682.680312459321</v>
+      </c>
+      <c r="F157" t="s">
+        <v>21</v>
+      </c>
+      <c r="G157" t="s">
+        <v>40</v>
+      </c>
+      <c r="J157" t="s">
+        <v>142</v>
+      </c>
+      <c r="K157">
+        <v>3080</v>
+      </c>
+      <c r="N157" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>14</v>
+      </c>
+      <c r="B158">
+        <v>95455367993</v>
+      </c>
+      <c r="C158" s="2">
+        <v>45676.738611070417</v>
+      </c>
+      <c r="F158" t="s">
+        <v>21</v>
+      </c>
+      <c r="G158" t="s">
+        <v>90</v>
+      </c>
+      <c r="J158" t="s">
+        <v>142</v>
+      </c>
+      <c r="K158">
+        <v>3080</v>
+      </c>
+      <c r="N158" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>14</v>
+      </c>
+      <c r="B159">
+        <v>95456178511</v>
+      </c>
+      <c r="C159" s="2">
+        <v>45681.381759218573</v>
+      </c>
+      <c r="F159" t="s">
+        <v>21</v>
+      </c>
+      <c r="G159" t="s">
+        <v>45</v>
+      </c>
+      <c r="J159" t="s">
+        <v>142</v>
+      </c>
+      <c r="K159">
+        <v>3080</v>
+      </c>
+      <c r="N159" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>14</v>
+      </c>
+      <c r="B160">
+        <v>95453992350</v>
+      </c>
+      <c r="C160" s="2">
+        <v>45682.327847181543</v>
+      </c>
+      <c r="F160" t="s">
+        <v>21</v>
+      </c>
+      <c r="G160" t="s">
+        <v>91</v>
+      </c>
+      <c r="J160" t="s">
+        <v>142</v>
+      </c>
+      <c r="K160">
+        <v>3082</v>
+      </c>
+      <c r="N160" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>14</v>
+      </c>
+      <c r="B161">
+        <v>95453989208</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45674.439421255607</v>
+      </c>
+      <c r="F161" t="s">
+        <v>21</v>
+      </c>
+      <c r="G161" t="s">
+        <v>92</v>
+      </c>
+      <c r="J161" t="s">
+        <v>142</v>
+      </c>
+      <c r="K161">
+        <v>3082</v>
+      </c>
+      <c r="N161" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>14</v>
+      </c>
+      <c r="B162">
+        <v>95454019152</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45672.200335607457</v>
+      </c>
+      <c r="F162" t="s">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>93</v>
+      </c>
+      <c r="J162" t="s">
+        <v>142</v>
+      </c>
+      <c r="K162">
+        <v>3082</v>
+      </c>
+      <c r="N162" s="3">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>14</v>
+      </c>
+      <c r="B163">
+        <v>95454234089</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45677.389652737103</v>
+      </c>
+      <c r="F163" t="s">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>93</v>
+      </c>
+      <c r="J163" t="s">
+        <v>142</v>
+      </c>
+      <c r="K163">
+        <v>3082</v>
+      </c>
+      <c r="N163" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>14</v>
+      </c>
+      <c r="B164">
+        <v>95454490158</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45683.216481440802</v>
+      </c>
+      <c r="F164" t="s">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>93</v>
+      </c>
+      <c r="J164" t="s">
+        <v>142</v>
+      </c>
+      <c r="K164">
+        <v>3082</v>
+      </c>
+      <c r="N164" s="3">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>14</v>
+      </c>
+      <c r="B165">
+        <v>95454481786</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45683.257442088943</v>
+      </c>
+      <c r="F165" t="s">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>93</v>
+      </c>
+      <c r="J165" t="s">
+        <v>142</v>
+      </c>
+      <c r="K165">
+        <v>3082</v>
+      </c>
+      <c r="N165" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>14</v>
+      </c>
+      <c r="B166">
+        <v>95454492483</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45676.051388848209</v>
+      </c>
+      <c r="F166" t="s">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>93</v>
+      </c>
+      <c r="J166" t="s">
+        <v>142</v>
+      </c>
+      <c r="K166">
+        <v>3082</v>
+      </c>
+      <c r="N166" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>14</v>
+      </c>
+      <c r="B167">
+        <v>95454522409</v>
+      </c>
+      <c r="C167" s="2">
+        <v>45671.939409681538</v>
+      </c>
+      <c r="F167" t="s">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>93</v>
+      </c>
+      <c r="J167" t="s">
+        <v>142</v>
+      </c>
+      <c r="K167">
+        <v>3082</v>
+      </c>
+      <c r="N167" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>14</v>
+      </c>
+      <c r="B168">
+        <v>95454527127</v>
+      </c>
+      <c r="C168" s="2">
+        <v>45677.410879588948</v>
+      </c>
+      <c r="F168" t="s">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>93</v>
+      </c>
+      <c r="J168" t="s">
+        <v>142</v>
+      </c>
+      <c r="K168">
+        <v>3082</v>
+      </c>
+      <c r="N168" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>14</v>
+      </c>
+      <c r="B169">
+        <v>95454607274</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45674.465104125993</v>
+      </c>
+      <c r="F169" t="s">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>91</v>
+      </c>
+      <c r="J169" t="s">
+        <v>142</v>
+      </c>
+      <c r="K169">
+        <v>3082</v>
+      </c>
+      <c r="N169" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>14</v>
+      </c>
+      <c r="B170">
+        <v>95454893630</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45684.712013848213</v>
+      </c>
+      <c r="F170" t="s">
+        <v>21</v>
+      </c>
+      <c r="G170" t="s">
+        <v>91</v>
+      </c>
+      <c r="J170" t="s">
+        <v>142</v>
+      </c>
+      <c r="K170">
+        <v>3082</v>
+      </c>
+      <c r="N170" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>14</v>
+      </c>
+      <c r="B171">
+        <v>95455254379</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45674.142951348207</v>
+      </c>
+      <c r="F171" t="s">
+        <v>21</v>
+      </c>
+      <c r="G171" t="s">
+        <v>91</v>
+      </c>
+      <c r="J171" t="s">
+        <v>142</v>
+      </c>
+      <c r="K171">
+        <v>3082</v>
+      </c>
+      <c r="N171" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A172" t="s">
+        <v>14</v>
+      </c>
+      <c r="B172">
+        <v>95455248399</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45677.024895792652</v>
+      </c>
+      <c r="F172" t="s">
+        <v>21</v>
+      </c>
+      <c r="G172" t="s">
+        <v>91</v>
+      </c>
+      <c r="J172" t="s">
+        <v>142</v>
+      </c>
+      <c r="K172">
+        <v>3082</v>
+      </c>
+      <c r="N172" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>14</v>
+      </c>
+      <c r="B173">
+        <v>95455251666</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45671.647824033389</v>
+      </c>
+      <c r="F173" t="s">
+        <v>21</v>
+      </c>
+      <c r="G173" t="s">
+        <v>94</v>
+      </c>
+      <c r="J173" t="s">
+        <v>142</v>
+      </c>
+      <c r="K173">
+        <v>3082</v>
+      </c>
+      <c r="N173" s="3">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>14</v>
+      </c>
+      <c r="B174">
+        <v>95455256784</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45672.361307829677</v>
+      </c>
+      <c r="F174" t="s">
+        <v>21</v>
+      </c>
+      <c r="G174" t="s">
+        <v>91</v>
+      </c>
+      <c r="J174" t="s">
+        <v>142</v>
+      </c>
+      <c r="K174">
+        <v>3082</v>
+      </c>
+      <c r="N174" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>14</v>
+      </c>
+      <c r="B175">
+        <v>95455250349</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45678.885254588953</v>
+      </c>
+      <c r="F175" t="s">
+        <v>21</v>
+      </c>
+      <c r="G175" t="s">
+        <v>94</v>
+      </c>
+      <c r="J175" t="s">
+        <v>142</v>
+      </c>
+      <c r="K175">
+        <v>3082</v>
+      </c>
+      <c r="N175" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>14</v>
+      </c>
+      <c r="B176">
+        <v>95455286609</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45678.313958292652</v>
+      </c>
+      <c r="F176" t="s">
+        <v>21</v>
+      </c>
+      <c r="G176" t="s">
+        <v>91</v>
+      </c>
+      <c r="J176" t="s">
+        <v>142</v>
+      </c>
+      <c r="K176">
+        <v>3082</v>
+      </c>
+      <c r="N176" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>14</v>
+      </c>
+      <c r="B177">
+        <v>95455477391</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45677.858437459319</v>
+      </c>
+      <c r="F177" t="s">
+        <v>21</v>
+      </c>
+      <c r="G177" t="s">
+        <v>91</v>
+      </c>
+      <c r="J177" t="s">
+        <v>142</v>
+      </c>
+      <c r="K177">
+        <v>3082</v>
+      </c>
+      <c r="N177" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>14</v>
+      </c>
+      <c r="B178">
+        <v>95455473793</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45677.795868014873</v>
+      </c>
+      <c r="F178" t="s">
+        <v>21</v>
+      </c>
+      <c r="G178" t="s">
+        <v>91</v>
+      </c>
+      <c r="J178" t="s">
+        <v>142</v>
+      </c>
+      <c r="K178">
+        <v>3082</v>
+      </c>
+      <c r="N178" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>14</v>
+      </c>
+      <c r="B179">
+        <v>95455671042</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45684.053923570427</v>
+      </c>
+      <c r="F179" t="s">
+        <v>21</v>
+      </c>
+      <c r="G179" t="s">
+        <v>91</v>
+      </c>
+      <c r="J179" t="s">
+        <v>142</v>
+      </c>
+      <c r="K179">
+        <v>3082</v>
+      </c>
+      <c r="N179" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>14</v>
+      </c>
+      <c r="B180">
+        <v>95455803350</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45676.418194403763</v>
+      </c>
+      <c r="F180" t="s">
+        <v>21</v>
+      </c>
+      <c r="G180" t="s">
+        <v>91</v>
+      </c>
+      <c r="J180" t="s">
+        <v>142</v>
+      </c>
+      <c r="K180">
+        <v>3082</v>
+      </c>
+      <c r="N180" s="3">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>14</v>
+      </c>
+      <c r="B181">
+        <v>95456009440</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45680.052245329687</v>
+      </c>
+      <c r="F181" t="s">
+        <v>21</v>
+      </c>
+      <c r="G181" t="s">
+        <v>91</v>
+      </c>
+      <c r="J181" t="s">
+        <v>142</v>
+      </c>
+      <c r="K181">
+        <v>3082</v>
+      </c>
+      <c r="N181" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>14</v>
+      </c>
+      <c r="B182">
+        <v>95456147877</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45673.393819403762</v>
+      </c>
+      <c r="F182" t="s">
+        <v>21</v>
+      </c>
+      <c r="G182" t="s">
+        <v>91</v>
+      </c>
+      <c r="J182" t="s">
+        <v>142</v>
+      </c>
+      <c r="K182">
+        <v>3082</v>
+      </c>
+      <c r="N182" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>14</v>
+      </c>
+      <c r="B183">
+        <v>95456264849</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45671.550173570431</v>
+      </c>
+      <c r="F183" t="s">
+        <v>21</v>
+      </c>
+      <c r="G183" t="s">
+        <v>91</v>
+      </c>
+      <c r="J183" t="s">
+        <v>142</v>
+      </c>
+      <c r="K183">
+        <v>3082</v>
+      </c>
+      <c r="N183" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>14</v>
+      </c>
+      <c r="B184">
+        <v>95456303739</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45676.361411996353</v>
+      </c>
+      <c r="F184" t="s">
+        <v>21</v>
+      </c>
+      <c r="G184" t="s">
+        <v>95</v>
+      </c>
+      <c r="J184" t="s">
+        <v>142</v>
+      </c>
+      <c r="K184">
+        <v>3082</v>
+      </c>
+      <c r="N184" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>14</v>
+      </c>
+      <c r="B185">
+        <v>95456329396</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45674.375474496352</v>
+      </c>
+      <c r="F185" t="s">
+        <v>21</v>
+      </c>
+      <c r="G185" t="s">
+        <v>93</v>
+      </c>
+      <c r="J185" t="s">
+        <v>142</v>
+      </c>
+      <c r="K185">
+        <v>3082</v>
+      </c>
+      <c r="N185" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>14</v>
+      </c>
+      <c r="B186">
+        <v>95456044614</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45679.003449033393</v>
+      </c>
+      <c r="F186" t="s">
+        <v>21</v>
+      </c>
+      <c r="G186" t="s">
+        <v>96</v>
+      </c>
+      <c r="J186" t="s">
+        <v>142</v>
+      </c>
+      <c r="K186">
+        <v>3098</v>
+      </c>
+      <c r="N186" s="3">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>14</v>
+      </c>
+      <c r="B187">
+        <v>95455842907</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45673.733495329689</v>
+      </c>
+      <c r="F187" t="s">
+        <v>21</v>
+      </c>
+      <c r="G187" t="s">
+        <v>97</v>
+      </c>
+      <c r="J187" t="s">
+        <v>142</v>
+      </c>
+      <c r="K187">
+        <v>3128</v>
+      </c>
+      <c r="N187" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>14</v>
+      </c>
+      <c r="B188">
+        <v>95455180169</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45671.562233755612</v>
+      </c>
+      <c r="F188" t="s">
+        <v>21</v>
+      </c>
+      <c r="G188" t="s">
+        <v>98</v>
+      </c>
+      <c r="J188" t="s">
+        <v>142</v>
+      </c>
+      <c r="K188">
+        <v>3134</v>
+      </c>
+      <c r="N188" s="3">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189">
+        <v>95453955258</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45676.811365700058</v>
+      </c>
+      <c r="F189" t="s">
+        <v>21</v>
+      </c>
+      <c r="G189" t="s">
+        <v>99</v>
+      </c>
+      <c r="J189" t="s">
+        <v>142</v>
+      </c>
+      <c r="K189">
+        <v>3142</v>
+      </c>
+      <c r="N189" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190">
+        <v>95454187229</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45674.123391163019</v>
+      </c>
+      <c r="F190" t="s">
+        <v>21</v>
+      </c>
+      <c r="G190" t="s">
+        <v>100</v>
+      </c>
+      <c r="J190" t="s">
+        <v>142</v>
+      </c>
+      <c r="K190">
+        <v>3142</v>
+      </c>
+      <c r="N190" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>14</v>
+      </c>
+      <c r="B191">
+        <v>95455138975</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45684.51630782969</v>
+      </c>
+      <c r="F191" t="s">
+        <v>21</v>
+      </c>
+      <c r="G191" t="s">
+        <v>100</v>
+      </c>
+      <c r="J191" t="s">
+        <v>142</v>
+      </c>
+      <c r="K191">
+        <v>3142</v>
+      </c>
+      <c r="N191" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>14</v>
+      </c>
+      <c r="B192">
+        <v>95455476690</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45676.270439774133</v>
+      </c>
+      <c r="F192" t="s">
+        <v>21</v>
+      </c>
+      <c r="G192" t="s">
+        <v>100</v>
+      </c>
+      <c r="J192" t="s">
+        <v>142</v>
+      </c>
+      <c r="K192">
+        <v>3142</v>
+      </c>
+      <c r="N192" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>14</v>
+      </c>
+      <c r="B193">
+        <v>95456268177</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45680.667847181539</v>
+      </c>
+      <c r="F193" t="s">
+        <v>21</v>
+      </c>
+      <c r="G193" t="s">
+        <v>101</v>
+      </c>
+      <c r="J193" t="s">
+        <v>142</v>
+      </c>
+      <c r="K193">
+        <v>3142</v>
+      </c>
+      <c r="N193" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194">
+        <v>95456400974</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45673.691261533393</v>
+      </c>
+      <c r="F194" t="s">
+        <v>21</v>
+      </c>
+      <c r="G194" t="s">
+        <v>102</v>
+      </c>
+      <c r="J194" t="s">
+        <v>142</v>
+      </c>
+      <c r="K194">
+        <v>3142</v>
+      </c>
+      <c r="N194" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>14</v>
+      </c>
+      <c r="B195">
+        <v>95456402547</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45680.158032366722</v>
+      </c>
+      <c r="F195" t="s">
+        <v>21</v>
+      </c>
+      <c r="G195" t="s">
+        <v>102</v>
+      </c>
+      <c r="J195" t="s">
+        <v>142</v>
+      </c>
+      <c r="K195">
+        <v>3142</v>
+      </c>
+      <c r="N195" s="3">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>14</v>
+      </c>
+      <c r="B196">
+        <v>95455438237</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45682.876122644513</v>
+      </c>
+      <c r="F196" t="s">
+        <v>21</v>
+      </c>
+      <c r="G196" t="s">
+        <v>103</v>
+      </c>
+      <c r="J196" t="s">
+        <v>142</v>
+      </c>
+      <c r="K196">
+        <v>3143</v>
+      </c>
+      <c r="N196" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>14</v>
+      </c>
+      <c r="B197">
+        <v>95455941492</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45679.316064774132</v>
+      </c>
+      <c r="F197" t="s">
+        <v>21</v>
+      </c>
+      <c r="G197" t="s">
+        <v>103</v>
+      </c>
+      <c r="J197" t="s">
+        <v>142</v>
+      </c>
+      <c r="K197">
+        <v>3143</v>
+      </c>
+      <c r="N197" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>14</v>
+      </c>
+      <c r="B198">
+        <v>95455142522</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45674.00917820006</v>
+      </c>
+      <c r="F198" t="s">
+        <v>21</v>
+      </c>
+      <c r="G198" t="s">
+        <v>31</v>
+      </c>
+      <c r="J198" t="s">
+        <v>142</v>
+      </c>
+      <c r="K198">
+        <v>3145</v>
+      </c>
+      <c r="N198" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>14</v>
+      </c>
+      <c r="B199">
+        <v>95454454327</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45682.887627274133</v>
+      </c>
+      <c r="F199" t="s">
+        <v>21</v>
+      </c>
+      <c r="G199" t="s">
+        <v>45</v>
+      </c>
+      <c r="J199" t="s">
+        <v>142</v>
+      </c>
+      <c r="K199">
+        <v>3152</v>
+      </c>
+      <c r="N199" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>14</v>
+      </c>
+      <c r="B200">
+        <v>95454481715</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45678.543680514871</v>
+      </c>
+      <c r="F200" t="s">
+        <v>21</v>
+      </c>
+      <c r="G200" t="s">
+        <v>45</v>
+      </c>
+      <c r="J200" t="s">
+        <v>142</v>
+      </c>
+      <c r="K200">
+        <v>3152</v>
+      </c>
+      <c r="N200" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>14</v>
+      </c>
+      <c r="B201">
+        <v>95454713268</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45671.664536996352</v>
+      </c>
+      <c r="F201" t="s">
+        <v>21</v>
+      </c>
+      <c r="G201" t="s">
+        <v>104</v>
+      </c>
+      <c r="J201" t="s">
+        <v>142</v>
+      </c>
+      <c r="K201">
+        <v>3152</v>
+      </c>
+      <c r="N201" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>14</v>
+      </c>
+      <c r="B202">
+        <v>95454225532</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45680.301041625993</v>
+      </c>
+      <c r="F202" t="s">
+        <v>21</v>
+      </c>
+      <c r="G202" t="s">
+        <v>105</v>
+      </c>
+      <c r="J202" t="s">
+        <v>142</v>
+      </c>
+      <c r="K202">
+        <v>3154</v>
+      </c>
+      <c r="N202" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>14</v>
+      </c>
+      <c r="B203">
+        <v>95454567946</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45684.560833292649</v>
+      </c>
+      <c r="F203" t="s">
+        <v>21</v>
+      </c>
+      <c r="G203" t="s">
+        <v>105</v>
+      </c>
+      <c r="J203" t="s">
+        <v>142</v>
+      </c>
+      <c r="K203">
+        <v>3154</v>
+      </c>
+      <c r="N203" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>14</v>
+      </c>
+      <c r="B204">
+        <v>95454716638</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45672.051481440802</v>
+      </c>
+      <c r="F204" t="s">
+        <v>21</v>
+      </c>
+      <c r="G204" t="s">
+        <v>106</v>
+      </c>
+      <c r="J204" t="s">
+        <v>142</v>
+      </c>
+      <c r="K204">
+        <v>3154</v>
+      </c>
+      <c r="N204" s="3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>14</v>
+      </c>
+      <c r="B205">
+        <v>95454811398</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45672.402071718578</v>
+      </c>
+      <c r="F205" t="s">
+        <v>21</v>
+      </c>
+      <c r="G205" t="s">
+        <v>105</v>
+      </c>
+      <c r="J205" t="s">
+        <v>142</v>
+      </c>
+      <c r="K205">
+        <v>3154</v>
+      </c>
+      <c r="N205" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>14</v>
+      </c>
+      <c r="B206">
+        <v>95454996095</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45674.811388848197</v>
+      </c>
+      <c r="F206" t="s">
+        <v>21</v>
+      </c>
+      <c r="G206" t="s">
+        <v>107</v>
+      </c>
+      <c r="J206" t="s">
+        <v>142</v>
+      </c>
+      <c r="K206">
+        <v>3154</v>
+      </c>
+      <c r="N206" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>14</v>
+      </c>
+      <c r="B207">
+        <v>95455366618</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45684.603865700061</v>
+      </c>
+      <c r="F207" t="s">
+        <v>21</v>
+      </c>
+      <c r="G207" t="s">
+        <v>108</v>
+      </c>
+      <c r="J207" t="s">
+        <v>142</v>
+      </c>
+      <c r="K207">
+        <v>3154</v>
+      </c>
+      <c r="N207" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>14</v>
+      </c>
+      <c r="B208">
+        <v>95455566939</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45678.23642357043</v>
+      </c>
+      <c r="F208" t="s">
+        <v>21</v>
+      </c>
+      <c r="G208" t="s">
+        <v>109</v>
+      </c>
+      <c r="J208" t="s">
+        <v>142</v>
+      </c>
+      <c r="K208">
+        <v>3154</v>
+      </c>
+      <c r="N208" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>14</v>
+      </c>
+      <c r="B209">
+        <v>95455475912</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45672.875092551913</v>
+      </c>
+      <c r="F209" t="s">
+        <v>21</v>
+      </c>
+      <c r="G209" t="s">
+        <v>108</v>
+      </c>
+      <c r="J209" t="s">
+        <v>142</v>
+      </c>
+      <c r="K209">
+        <v>3154</v>
+      </c>
+      <c r="N209" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>14</v>
+      </c>
+      <c r="B210">
+        <v>95455472123</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45677.427418940802</v>
+      </c>
+      <c r="F210" t="s">
+        <v>21</v>
+      </c>
+      <c r="G210" t="s">
+        <v>108</v>
+      </c>
+      <c r="J210" t="s">
+        <v>142</v>
+      </c>
+      <c r="K210">
+        <v>3154</v>
+      </c>
+      <c r="N210" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A211" t="s">
+        <v>14</v>
+      </c>
+      <c r="B211">
+        <v>95455470124</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45674.630347181541</v>
+      </c>
+      <c r="F211" t="s">
+        <v>21</v>
+      </c>
+      <c r="G211" t="s">
+        <v>108</v>
+      </c>
+      <c r="J211" t="s">
+        <v>142</v>
+      </c>
+      <c r="K211">
+        <v>3154</v>
+      </c>
+      <c r="N211" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A212" t="s">
+        <v>14</v>
+      </c>
+      <c r="B212">
+        <v>95455470178</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45678.568205977826</v>
+      </c>
+      <c r="F212" t="s">
+        <v>21</v>
+      </c>
+      <c r="G212" t="s">
+        <v>110</v>
+      </c>
+      <c r="J212" t="s">
+        <v>142</v>
+      </c>
+      <c r="K212">
+        <v>3154</v>
+      </c>
+      <c r="N212" s="3">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A213" t="s">
+        <v>14</v>
+      </c>
+      <c r="B213">
+        <v>95455470208</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45672.264363385242</v>
+      </c>
+      <c r="F213" t="s">
+        <v>21</v>
+      </c>
+      <c r="G213" t="s">
+        <v>110</v>
+      </c>
+      <c r="J213" t="s">
+        <v>142</v>
+      </c>
+      <c r="K213">
+        <v>3154</v>
+      </c>
+      <c r="N213" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A214" t="s">
+        <v>14</v>
+      </c>
+      <c r="B214">
+        <v>95455471130</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45671.400624959308</v>
+      </c>
+      <c r="F214" t="s">
+        <v>21</v>
+      </c>
+      <c r="G214" t="s">
+        <v>108</v>
+      </c>
+      <c r="J214" t="s">
+        <v>142</v>
+      </c>
+      <c r="K214">
+        <v>3154</v>
+      </c>
+      <c r="N214" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A215" t="s">
+        <v>14</v>
+      </c>
+      <c r="B215">
+        <v>95455475577</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45683.308229125993</v>
+      </c>
+      <c r="F215" t="s">
+        <v>21</v>
+      </c>
+      <c r="G215" t="s">
+        <v>108</v>
+      </c>
+      <c r="J215" t="s">
+        <v>142</v>
+      </c>
+      <c r="K215">
+        <v>3154</v>
+      </c>
+      <c r="N215" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B216">
+        <v>95455487819</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45672.85124995932</v>
+      </c>
+      <c r="F216" t="s">
+        <v>21</v>
+      </c>
+      <c r="G216" t="s">
+        <v>110</v>
+      </c>
+      <c r="J216" t="s">
+        <v>142</v>
+      </c>
+      <c r="K216">
+        <v>3154</v>
+      </c>
+      <c r="N216" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A217" t="s">
+        <v>14</v>
+      </c>
+      <c r="B217">
+        <v>95455459298</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45682.59270829265</v>
+      </c>
+      <c r="F217" t="s">
+        <v>21</v>
+      </c>
+      <c r="G217" t="s">
+        <v>108</v>
+      </c>
+      <c r="J217" t="s">
+        <v>142</v>
+      </c>
+      <c r="K217">
+        <v>3154</v>
+      </c>
+      <c r="N217" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A218" t="s">
+        <v>14</v>
+      </c>
+      <c r="B218">
+        <v>95455479417</v>
+      </c>
+      <c r="C218" s="2">
+        <v>45682.17355320006</v>
+      </c>
+      <c r="F218" t="s">
+        <v>21</v>
+      </c>
+      <c r="G218" t="s">
+        <v>108</v>
+      </c>
+      <c r="J218" t="s">
+        <v>142</v>
+      </c>
+      <c r="K218">
+        <v>3154</v>
+      </c>
+      <c r="N218" s="3">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A219" t="s">
+        <v>14</v>
+      </c>
+      <c r="B219">
+        <v>95455669220</v>
+      </c>
+      <c r="C219" s="2">
+        <v>45676.39062495932</v>
+      </c>
+      <c r="F219" t="s">
+        <v>21</v>
+      </c>
+      <c r="G219" t="s">
+        <v>108</v>
+      </c>
+      <c r="J219" t="s">
+        <v>142</v>
+      </c>
+      <c r="K219">
+        <v>3154</v>
+      </c>
+      <c r="N219" s="3">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B220">
+        <v>95455736481</v>
+      </c>
+      <c r="C220" s="2">
+        <v>45674.601145792651</v>
+      </c>
+      <c r="F220" t="s">
+        <v>21</v>
+      </c>
+      <c r="G220" t="s">
+        <v>111</v>
+      </c>
+      <c r="J220" t="s">
+        <v>142</v>
+      </c>
+      <c r="K220">
+        <v>3154</v>
+      </c>
+      <c r="N220" s="3">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A221" t="s">
+        <v>14</v>
+      </c>
+      <c r="B221">
+        <v>95455971162</v>
+      </c>
+      <c r="C221" s="2">
+        <v>45680.666539311169</v>
+      </c>
+      <c r="F221" t="s">
+        <v>21</v>
+      </c>
+      <c r="G221" t="s">
+        <v>105</v>
+      </c>
+      <c r="J221" t="s">
+        <v>142</v>
+      </c>
+      <c r="K221">
+        <v>3154</v>
+      </c>
+      <c r="N221" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A222" t="s">
+        <v>14</v>
+      </c>
+      <c r="B222">
+        <v>95456051758</v>
+      </c>
+      <c r="C222" s="2">
+        <v>45683.808645792647</v>
+      </c>
+      <c r="F222" t="s">
+        <v>21</v>
+      </c>
+      <c r="G222" t="s">
+        <v>105</v>
+      </c>
+      <c r="J222" t="s">
+        <v>142</v>
+      </c>
+      <c r="K222">
+        <v>3154</v>
+      </c>
+      <c r="N222" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A223" t="s">
+        <v>14</v>
+      </c>
+      <c r="B223">
+        <v>95456215739</v>
+      </c>
+      <c r="C223" s="2">
+        <v>45677.466955977827</v>
+      </c>
+      <c r="F223" t="s">
+        <v>21</v>
+      </c>
+      <c r="G223" t="s">
+        <v>106</v>
+      </c>
+      <c r="J223" t="s">
+        <v>142</v>
+      </c>
+      <c r="K223">
+        <v>3154</v>
+      </c>
+      <c r="N223" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A224" t="s">
+        <v>14</v>
+      </c>
+      <c r="B224">
+        <v>95456145127</v>
+      </c>
+      <c r="C224" s="2">
+        <v>45677.804629588943</v>
+      </c>
+      <c r="F224" t="s">
+        <v>21</v>
+      </c>
+      <c r="G224" t="s">
+        <v>105</v>
+      </c>
+      <c r="J224" t="s">
+        <v>142</v>
+      </c>
+      <c r="K224">
+        <v>3154</v>
+      </c>
+      <c r="N224" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A225" t="s">
+        <v>14</v>
+      </c>
+      <c r="B225">
+        <v>95456264652</v>
+      </c>
+      <c r="C225" s="2">
+        <v>45682.240057829687</v>
+      </c>
+      <c r="F225" t="s">
+        <v>21</v>
+      </c>
+      <c r="G225" t="s">
+        <v>109</v>
+      </c>
+      <c r="J225" t="s">
+        <v>142</v>
+      </c>
+      <c r="K225">
+        <v>3154</v>
+      </c>
+      <c r="N225" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A226" t="s">
+        <v>14</v>
+      </c>
+      <c r="B226">
+        <v>95454226729</v>
+      </c>
+      <c r="C226" s="2">
+        <v>45672.966157366733</v>
+      </c>
+      <c r="F226" t="s">
+        <v>21</v>
+      </c>
+      <c r="G226" t="s">
+        <v>112</v>
+      </c>
+      <c r="J226" t="s">
+        <v>142</v>
+      </c>
+      <c r="K226">
+        <v>3155</v>
+      </c>
+      <c r="N226" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A227" t="s">
+        <v>14</v>
+      </c>
+      <c r="B227">
+        <v>95454267824</v>
+      </c>
+      <c r="C227" s="2">
+        <v>45677.159629588947</v>
+      </c>
+      <c r="F227" t="s">
+        <v>21</v>
+      </c>
+      <c r="G227" t="s">
+        <v>113</v>
+      </c>
+      <c r="J227" t="s">
+        <v>142</v>
+      </c>
+      <c r="K227">
+        <v>3155</v>
+      </c>
+      <c r="N227" s="3">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A228" t="s">
+        <v>14</v>
+      </c>
+      <c r="B228">
+        <v>95454562256</v>
+      </c>
+      <c r="C228" s="2">
+        <v>45671.619722181538</v>
+      </c>
+      <c r="F228" t="s">
+        <v>21</v>
+      </c>
+      <c r="G228" t="s">
+        <v>113</v>
+      </c>
+      <c r="J228" t="s">
+        <v>142</v>
+      </c>
+      <c r="K228">
+        <v>3155</v>
+      </c>
+      <c r="N228" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A229" t="s">
+        <v>14</v>
+      </c>
+      <c r="B229">
+        <v>95454889624</v>
+      </c>
+      <c r="C229" s="2">
+        <v>45676.467800885242</v>
+      </c>
+      <c r="F229" t="s">
+        <v>21</v>
+      </c>
+      <c r="G229" t="s">
+        <v>112</v>
+      </c>
+      <c r="J229" t="s">
+        <v>142</v>
+      </c>
+      <c r="K229">
+        <v>3155</v>
+      </c>
+      <c r="N229" s="3">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A230" t="s">
+        <v>14</v>
+      </c>
+      <c r="B230">
+        <v>95455035798</v>
+      </c>
+      <c r="C230" s="2">
+        <v>45675.129594866718</v>
+      </c>
+      <c r="F230" t="s">
+        <v>21</v>
+      </c>
+      <c r="G230" t="s">
+        <v>113</v>
+      </c>
+      <c r="J230" t="s">
+        <v>142</v>
+      </c>
+      <c r="K230">
+        <v>3155</v>
+      </c>
+      <c r="N230" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A231" t="s">
+        <v>14</v>
+      </c>
+      <c r="B231">
+        <v>95455736085</v>
+      </c>
+      <c r="C231" s="2">
+        <v>45684.38449070006</v>
+      </c>
+      <c r="F231" t="s">
+        <v>21</v>
+      </c>
+      <c r="G231" t="s">
+        <v>113</v>
+      </c>
+      <c r="J231" t="s">
+        <v>142</v>
+      </c>
+      <c r="K231">
+        <v>3155</v>
+      </c>
+      <c r="N231" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A232" t="s">
+        <v>14</v>
+      </c>
+      <c r="B232">
+        <v>95455733784</v>
+      </c>
+      <c r="C232" s="2">
+        <v>45681.363321718578</v>
+      </c>
+      <c r="F232" t="s">
+        <v>21</v>
+      </c>
+      <c r="G232" t="s">
+        <v>113</v>
+      </c>
+      <c r="J232" t="s">
+        <v>142</v>
+      </c>
+      <c r="K232">
+        <v>3155</v>
+      </c>
+      <c r="N232" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A233" t="s">
+        <v>14</v>
+      </c>
+      <c r="B233">
+        <v>95455774619</v>
+      </c>
+      <c r="C233" s="2">
+        <v>45671.49995366302</v>
+      </c>
+      <c r="F233" t="s">
+        <v>21</v>
+      </c>
+      <c r="G233" t="s">
+        <v>113</v>
+      </c>
+      <c r="J233" t="s">
+        <v>142</v>
+      </c>
+      <c r="K233">
+        <v>3155</v>
+      </c>
+      <c r="N233" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A234" t="s">
+        <v>14</v>
+      </c>
+      <c r="B234">
+        <v>95455840299</v>
+      </c>
+      <c r="C234" s="2">
+        <v>45683.36577542228</v>
+      </c>
+      <c r="F234" t="s">
+        <v>21</v>
+      </c>
+      <c r="G234" t="s">
+        <v>113</v>
+      </c>
+      <c r="J234" t="s">
+        <v>142</v>
+      </c>
+      <c r="K234">
+        <v>3155</v>
+      </c>
+      <c r="N234" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A235" t="s">
+        <v>14</v>
+      </c>
+      <c r="B235">
+        <v>95455840142</v>
+      </c>
+      <c r="C235" s="2">
+        <v>45680.895902737087</v>
+      </c>
+      <c r="F235" t="s">
+        <v>21</v>
+      </c>
+      <c r="G235" t="s">
+        <v>113</v>
+      </c>
+      <c r="J235" t="s">
+        <v>142</v>
+      </c>
+      <c r="K235">
+        <v>3155</v>
+      </c>
+      <c r="N235" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A236" t="s">
+        <v>14</v>
+      </c>
+      <c r="B236">
+        <v>95456231819</v>
+      </c>
+      <c r="C236" s="2">
+        <v>45681.593611070428</v>
+      </c>
+      <c r="F236" t="s">
+        <v>21</v>
+      </c>
+      <c r="G236" t="s">
+        <v>113</v>
+      </c>
+      <c r="J236" t="s">
+        <v>142</v>
+      </c>
+      <c r="K236">
+        <v>3155</v>
+      </c>
+      <c r="N236" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B237">
+        <v>95454521286</v>
+      </c>
+      <c r="C237" s="2">
+        <v>45681.833159681541</v>
+      </c>
+      <c r="F237" t="s">
+        <v>21</v>
+      </c>
+      <c r="G237" t="s">
+        <v>45</v>
+      </c>
+      <c r="J237" t="s">
+        <v>142</v>
+      </c>
+      <c r="K237">
+        <v>3157</v>
+      </c>
+      <c r="N237" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B238">
+        <v>95455327745</v>
+      </c>
+      <c r="C238" s="2">
+        <v>45682.78224532969</v>
+      </c>
+      <c r="F238" t="s">
+        <v>21</v>
+      </c>
+      <c r="G238" t="s">
+        <v>114</v>
+      </c>
+      <c r="J238" t="s">
+        <v>142</v>
+      </c>
+      <c r="K238">
+        <v>3157</v>
+      </c>
+      <c r="N238" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B239">
+        <v>95454917765</v>
+      </c>
+      <c r="C239" s="2">
+        <v>45673.379108755616</v>
+      </c>
+      <c r="F239" t="s">
+        <v>21</v>
+      </c>
+      <c r="G239" t="s">
+        <v>31</v>
+      </c>
+      <c r="J239" t="s">
+        <v>142</v>
+      </c>
+      <c r="K239">
+        <v>3159</v>
+      </c>
+      <c r="N239" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A240" t="s">
+        <v>14</v>
+      </c>
+      <c r="B240">
+        <v>95455601643</v>
+      </c>
+      <c r="C240" s="2">
+        <v>45672.549455977838</v>
+      </c>
+      <c r="F240" t="s">
+        <v>21</v>
+      </c>
+      <c r="G240" t="s">
+        <v>115</v>
+      </c>
+      <c r="J240" t="s">
+        <v>142</v>
+      </c>
+      <c r="K240">
+        <v>3159</v>
+      </c>
+      <c r="N240" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A241" t="s">
+        <v>14</v>
+      </c>
+      <c r="B241">
+        <v>95455972531</v>
+      </c>
+      <c r="C241" s="2">
+        <v>45674.871145792647</v>
+      </c>
+      <c r="F241" t="s">
+        <v>21</v>
+      </c>
+      <c r="G241" t="s">
+        <v>116</v>
+      </c>
+      <c r="J241" t="s">
+        <v>142</v>
+      </c>
+      <c r="K241">
+        <v>3159</v>
+      </c>
+      <c r="N241" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A242" t="s">
+        <v>14</v>
+      </c>
+      <c r="B242">
+        <v>95455841349</v>
+      </c>
+      <c r="C242" s="2">
+        <v>45676.796099496358</v>
+      </c>
+      <c r="F242" t="s">
+        <v>21</v>
+      </c>
+      <c r="G242" t="s">
+        <v>116</v>
+      </c>
+      <c r="J242" t="s">
+        <v>142</v>
+      </c>
+      <c r="K242">
+        <v>3159</v>
+      </c>
+      <c r="N242" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A243" t="s">
+        <v>14</v>
+      </c>
+      <c r="B243">
+        <v>95456300104</v>
+      </c>
+      <c r="C243" s="2">
+        <v>45684.293830977833</v>
+      </c>
+      <c r="F243" t="s">
+        <v>21</v>
+      </c>
+      <c r="G243" t="s">
+        <v>116</v>
+      </c>
+      <c r="J243" t="s">
+        <v>142</v>
+      </c>
+      <c r="K243">
+        <v>3159</v>
+      </c>
+      <c r="N243" s="3">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A244" t="s">
+        <v>14</v>
+      </c>
+      <c r="B244">
+        <v>95453950717</v>
+      </c>
+      <c r="C244" s="2">
+        <v>45679.706273107462</v>
+      </c>
+      <c r="F244" t="s">
+        <v>21</v>
+      </c>
+      <c r="G244" t="s">
+        <v>117</v>
+      </c>
+      <c r="J244" t="s">
+        <v>142</v>
+      </c>
+      <c r="K244">
+        <v>3160</v>
+      </c>
+      <c r="N244" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A245" t="s">
+        <v>14</v>
+      </c>
+      <c r="B245">
+        <v>95454019893</v>
+      </c>
+      <c r="C245" s="2">
+        <v>45681.548680514883</v>
+      </c>
+      <c r="F245" t="s">
+        <v>21</v>
+      </c>
+      <c r="G245" t="s">
+        <v>117</v>
+      </c>
+      <c r="J245" t="s">
+        <v>142</v>
+      </c>
+      <c r="K245">
+        <v>3160</v>
+      </c>
+      <c r="N245" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A246" t="s">
+        <v>14</v>
+      </c>
+      <c r="B246">
+        <v>95454153911</v>
+      </c>
+      <c r="C246" s="2">
+        <v>45672.657685144499</v>
+      </c>
+      <c r="F246" t="s">
+        <v>21</v>
+      </c>
+      <c r="G246" t="s">
+        <v>117</v>
+      </c>
+      <c r="J246" t="s">
+        <v>142</v>
+      </c>
+      <c r="K246">
+        <v>3160</v>
+      </c>
+      <c r="N246" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A247" t="s">
+        <v>14</v>
+      </c>
+      <c r="B247">
+        <v>95454146137</v>
+      </c>
+      <c r="C247" s="2">
+        <v>45671.652777737087</v>
+      </c>
+      <c r="F247" t="s">
+        <v>21</v>
+      </c>
+      <c r="G247" t="s">
+        <v>117</v>
+      </c>
+      <c r="J247" t="s">
+        <v>142</v>
+      </c>
+      <c r="K247">
+        <v>3160</v>
+      </c>
+      <c r="N247" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A248" t="s">
+        <v>14</v>
+      </c>
+      <c r="B248">
+        <v>95454306430</v>
+      </c>
+      <c r="C248" s="2">
+        <v>45681.547071718567</v>
+      </c>
+      <c r="F248" t="s">
+        <v>21</v>
+      </c>
+      <c r="G248" t="s">
+        <v>117</v>
+      </c>
+      <c r="J248" t="s">
+        <v>142</v>
+      </c>
+      <c r="K248">
+        <v>3160</v>
+      </c>
+      <c r="N248" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A249" t="s">
+        <v>14</v>
+      </c>
+      <c r="B249">
+        <v>95454449865</v>
+      </c>
+      <c r="C249" s="2">
+        <v>45680.781539311167</v>
+      </c>
+      <c r="F249" t="s">
+        <v>21</v>
+      </c>
+      <c r="G249" t="s">
+        <v>117</v>
+      </c>
+      <c r="J249" t="s">
+        <v>142</v>
+      </c>
+      <c r="K249">
+        <v>3160</v>
+      </c>
+      <c r="N249" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A250" t="s">
+        <v>14</v>
+      </c>
+      <c r="B250">
+        <v>95454481716</v>
+      </c>
+      <c r="C250" s="2">
+        <v>45672.285324033393</v>
+      </c>
+      <c r="F250" t="s">
+        <v>21</v>
+      </c>
+      <c r="G250" t="s">
+        <v>117</v>
+      </c>
+      <c r="J250" t="s">
+        <v>142</v>
+      </c>
+      <c r="K250">
+        <v>3160</v>
+      </c>
+      <c r="N250" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B251">
+        <v>95455004826</v>
+      </c>
+      <c r="C251" s="2">
+        <v>45673.869074033391</v>
+      </c>
+      <c r="F251" t="s">
+        <v>21</v>
+      </c>
+      <c r="G251" t="s">
+        <v>117</v>
+      </c>
+      <c r="J251" t="s">
+        <v>142</v>
+      </c>
+      <c r="K251">
+        <v>3160</v>
+      </c>
+      <c r="N251" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A252" t="s">
+        <v>14</v>
+      </c>
+      <c r="B252">
+        <v>95455030356</v>
+      </c>
+      <c r="C252" s="2">
+        <v>45674.2839351445</v>
+      </c>
+      <c r="F252" t="s">
+        <v>21</v>
+      </c>
+      <c r="G252" t="s">
+        <v>117</v>
+      </c>
+      <c r="J252" t="s">
+        <v>142</v>
+      </c>
+      <c r="K252">
+        <v>3160</v>
+      </c>
+      <c r="N252" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A253" t="s">
+        <v>14</v>
+      </c>
+      <c r="B253">
+        <v>95455176098</v>
+      </c>
+      <c r="C253" s="2">
+        <v>45683.402210607463</v>
+      </c>
+      <c r="F253" t="s">
+        <v>21</v>
+      </c>
+      <c r="G253" t="s">
+        <v>117</v>
+      </c>
+      <c r="J253" t="s">
+        <v>142</v>
+      </c>
+      <c r="K253">
+        <v>3160</v>
+      </c>
+      <c r="N253" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A254" t="s">
+        <v>14</v>
+      </c>
+      <c r="B254">
+        <v>95455329843</v>
+      </c>
+      <c r="C254" s="2">
+        <v>45676.520925885241</v>
+      </c>
+      <c r="F254" t="s">
+        <v>21</v>
+      </c>
+      <c r="G254" t="s">
+        <v>117</v>
+      </c>
+      <c r="J254" t="s">
+        <v>142</v>
+      </c>
+      <c r="K254">
+        <v>3160</v>
+      </c>
+      <c r="N254" s="3">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A255" t="s">
+        <v>14</v>
+      </c>
+      <c r="B255">
+        <v>95455403896</v>
+      </c>
+      <c r="C255" s="2">
+        <v>45674.793599496363</v>
+      </c>
+      <c r="F255" t="s">
+        <v>21</v>
+      </c>
+      <c r="G255" t="s">
+        <v>117</v>
+      </c>
+      <c r="J255" t="s">
+        <v>142</v>
+      </c>
+      <c r="K255">
+        <v>3160</v>
+      </c>
+      <c r="N255" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A256" t="s">
+        <v>14</v>
+      </c>
+      <c r="B256">
+        <v>95455396106</v>
+      </c>
+      <c r="C256" s="2">
+        <v>45675.511469866717</v>
+      </c>
+      <c r="F256" t="s">
+        <v>21</v>
+      </c>
+      <c r="G256" t="s">
+        <v>117</v>
+      </c>
+      <c r="J256" t="s">
+        <v>142</v>
+      </c>
+      <c r="K256">
+        <v>3160</v>
+      </c>
+      <c r="N256" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A257" t="s">
+        <v>14</v>
+      </c>
+      <c r="B257">
+        <v>95455440665</v>
+      </c>
+      <c r="C257" s="2">
+        <v>45671.732210607457</v>
+      </c>
+      <c r="F257" t="s">
+        <v>21</v>
+      </c>
+      <c r="G257" t="s">
+        <v>117</v>
+      </c>
+      <c r="J257" t="s">
+        <v>142</v>
+      </c>
+      <c r="K257">
+        <v>3160</v>
+      </c>
+      <c r="N257" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A258" t="s">
+        <v>14</v>
+      </c>
+      <c r="B258">
+        <v>95455436517</v>
+      </c>
+      <c r="C258" s="2">
+        <v>45681.064791625977</v>
+      </c>
+      <c r="F258" t="s">
+        <v>21</v>
+      </c>
+      <c r="G258" t="s">
+        <v>117</v>
+      </c>
+      <c r="J258" t="s">
+        <v>142</v>
+      </c>
+      <c r="K258">
+        <v>3160</v>
+      </c>
+      <c r="N258" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A259" t="s">
+        <v>14</v>
+      </c>
+      <c r="B259">
+        <v>95455439120</v>
+      </c>
+      <c r="C259" s="2">
+        <v>45681.432939774131</v>
+      </c>
+      <c r="F259" t="s">
+        <v>21</v>
+      </c>
+      <c r="G259" t="s">
+        <v>117</v>
+      </c>
+      <c r="J259" t="s">
+        <v>142</v>
+      </c>
+      <c r="K259">
+        <v>3160</v>
+      </c>
+      <c r="N259" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A260" t="s">
+        <v>14</v>
+      </c>
+      <c r="B260">
+        <v>95455598845</v>
+      </c>
+      <c r="C260" s="2">
+        <v>45675.830914311169</v>
+      </c>
+      <c r="F260" t="s">
+        <v>21</v>
+      </c>
+      <c r="G260" t="s">
+        <v>117</v>
+      </c>
+      <c r="J260" t="s">
+        <v>142</v>
+      </c>
+      <c r="K260">
+        <v>3160</v>
+      </c>
+      <c r="N260" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A261" t="s">
+        <v>14</v>
+      </c>
+      <c r="B261">
+        <v>95455666683</v>
+      </c>
+      <c r="C261" s="2">
+        <v>45678.489247644502</v>
+      </c>
+      <c r="F261" t="s">
+        <v>21</v>
+      </c>
+      <c r="G261" t="s">
+        <v>118</v>
+      </c>
+      <c r="J261" t="s">
+        <v>142</v>
+      </c>
+      <c r="K261">
+        <v>3160</v>
+      </c>
+      <c r="N261" s="3">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A262" t="s">
+        <v>14</v>
+      </c>
+      <c r="B262">
+        <v>95455868807</v>
+      </c>
+      <c r="C262" s="2">
+        <v>45673.084872644496</v>
+      </c>
+      <c r="F262" t="s">
+        <v>21</v>
+      </c>
+      <c r="G262" t="s">
+        <v>117</v>
+      </c>
+      <c r="J262" t="s">
+        <v>142</v>
+      </c>
+      <c r="K262">
+        <v>3160</v>
+      </c>
+      <c r="N262" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A263" t="s">
+        <v>14</v>
+      </c>
+      <c r="B263">
+        <v>95456013894</v>
+      </c>
+      <c r="C263" s="2">
+        <v>45684.559027737087</v>
+      </c>
+      <c r="F263" t="s">
+        <v>21</v>
+      </c>
+      <c r="G263" t="s">
+        <v>40</v>
+      </c>
+      <c r="J263" t="s">
+        <v>142</v>
+      </c>
+      <c r="K263">
+        <v>3160</v>
+      </c>
+      <c r="N263" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A264" t="s">
+        <v>14</v>
+      </c>
+      <c r="B264">
+        <v>95456046249</v>
+      </c>
+      <c r="C264" s="2">
+        <v>45675.696145792652</v>
+      </c>
+      <c r="F264" t="s">
+        <v>21</v>
+      </c>
+      <c r="G264" t="s">
+        <v>117</v>
+      </c>
+      <c r="J264" t="s">
+        <v>142</v>
+      </c>
+      <c r="K264">
+        <v>3160</v>
+      </c>
+      <c r="N264" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A265" t="s">
+        <v>14</v>
+      </c>
+      <c r="B265">
+        <v>95456041185</v>
+      </c>
+      <c r="C265" s="2">
+        <v>45672.053356440803</v>
+      </c>
+      <c r="F265" t="s">
+        <v>21</v>
+      </c>
+      <c r="G265" t="s">
+        <v>117</v>
+      </c>
+      <c r="J265" t="s">
+        <v>142</v>
+      </c>
+      <c r="K265">
+        <v>3160</v>
+      </c>
+      <c r="N265" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A266" t="s">
+        <v>14</v>
+      </c>
+      <c r="B266">
+        <v>95456018930</v>
+      </c>
+      <c r="C266" s="2">
+        <v>45675.196932829691</v>
+      </c>
+      <c r="F266" t="s">
+        <v>21</v>
+      </c>
+      <c r="G266" t="s">
+        <v>117</v>
+      </c>
+      <c r="J266" t="s">
+        <v>142</v>
+      </c>
+      <c r="K266">
+        <v>3160</v>
+      </c>
+      <c r="N266" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A267" t="s">
+        <v>14</v>
+      </c>
+      <c r="B267">
+        <v>95455978414</v>
+      </c>
+      <c r="C267" s="2">
+        <v>45676.507546255612</v>
+      </c>
+      <c r="F267" t="s">
+        <v>21</v>
+      </c>
+      <c r="G267" t="s">
+        <v>40</v>
+      </c>
+      <c r="J267" t="s">
+        <v>142</v>
+      </c>
+      <c r="K267">
+        <v>3160</v>
+      </c>
+      <c r="N267" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A268" t="s">
+        <v>14</v>
+      </c>
+      <c r="B268">
+        <v>95456115096</v>
+      </c>
+      <c r="C268" s="2">
+        <v>45674.799004588953</v>
+      </c>
+      <c r="F268" t="s">
+        <v>21</v>
+      </c>
+      <c r="G268" t="s">
+        <v>117</v>
+      </c>
+      <c r="J268" t="s">
+        <v>142</v>
+      </c>
+      <c r="K268">
+        <v>3160</v>
+      </c>
+      <c r="N268" s="3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A269" t="s">
+        <v>14</v>
+      </c>
+      <c r="B269">
+        <v>95456184991</v>
+      </c>
+      <c r="C269" s="2">
+        <v>45678.687291625982</v>
+      </c>
+      <c r="F269" t="s">
+        <v>21</v>
+      </c>
+      <c r="G269" t="s">
+        <v>117</v>
+      </c>
+      <c r="J269" t="s">
+        <v>142</v>
+      </c>
+      <c r="K269">
+        <v>3160</v>
+      </c>
+      <c r="N269" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A270" t="s">
+        <v>14</v>
+      </c>
+      <c r="B270">
+        <v>95456150181</v>
+      </c>
+      <c r="C270" s="2">
+        <v>45679.384988385253</v>
+      </c>
+      <c r="F270" t="s">
+        <v>21</v>
+      </c>
+      <c r="G270" t="s">
+        <v>117</v>
+      </c>
+      <c r="J270" t="s">
+        <v>142</v>
+      </c>
+      <c r="K270">
+        <v>3160</v>
+      </c>
+      <c r="N270" s="3">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A271" t="s">
+        <v>14</v>
+      </c>
+      <c r="B271">
+        <v>95456403151</v>
+      </c>
+      <c r="C271" s="2">
+        <v>45671.275983755622</v>
+      </c>
+      <c r="F271" t="s">
+        <v>21</v>
+      </c>
+      <c r="G271" t="s">
+        <v>117</v>
+      </c>
+      <c r="J271" t="s">
+        <v>142</v>
+      </c>
+      <c r="K271">
+        <v>3160</v>
+      </c>
+      <c r="N271" s="3">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A272" t="s">
+        <v>14</v>
+      </c>
+      <c r="B272">
+        <v>95456401887</v>
+      </c>
+      <c r="C272" s="2">
+        <v>45682.721967551908</v>
+      </c>
+      <c r="F272" t="s">
+        <v>21</v>
+      </c>
+      <c r="G272" t="s">
+        <v>117</v>
+      </c>
+      <c r="J272" t="s">
+        <v>142</v>
+      </c>
+      <c r="K272">
+        <v>3160</v>
+      </c>
+      <c r="N272" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A273" t="s">
+        <v>14</v>
+      </c>
+      <c r="B273">
+        <v>95454189985</v>
+      </c>
+      <c r="C273" s="2">
+        <v>45679.68918977413</v>
+      </c>
+      <c r="F273" t="s">
+        <v>21</v>
+      </c>
+      <c r="G273" t="s">
+        <v>119</v>
+      </c>
+      <c r="J273" t="s">
+        <v>142</v>
+      </c>
+      <c r="K273">
+        <v>3161</v>
+      </c>
+      <c r="N273" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A274" t="s">
+        <v>14</v>
+      </c>
+      <c r="B274">
+        <v>95454267749</v>
+      </c>
+      <c r="C274" s="2">
+        <v>45676.113703663017</v>
+      </c>
+      <c r="F274" t="s">
+        <v>21</v>
+      </c>
+      <c r="G274" t="s">
+        <v>119</v>
+      </c>
+      <c r="J274" t="s">
+        <v>142</v>
+      </c>
+      <c r="K274">
+        <v>3161</v>
+      </c>
+      <c r="N274" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A275" t="s">
+        <v>14</v>
+      </c>
+      <c r="B275">
+        <v>95454267758</v>
+      </c>
+      <c r="C275" s="2">
+        <v>45678.601481440797</v>
+      </c>
+      <c r="F275" t="s">
+        <v>21</v>
+      </c>
+      <c r="G275" t="s">
+        <v>120</v>
+      </c>
+      <c r="J275" t="s">
+        <v>142</v>
+      </c>
+      <c r="K275">
+        <v>3161</v>
+      </c>
+      <c r="N275" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A276" t="s">
+        <v>14</v>
+      </c>
+      <c r="B276">
+        <v>95454602143</v>
+      </c>
+      <c r="C276" s="2">
+        <v>45677.289525422282</v>
+      </c>
+      <c r="F276" t="s">
+        <v>21</v>
+      </c>
+      <c r="G276" t="s">
+        <v>121</v>
+      </c>
+      <c r="J276" t="s">
+        <v>142</v>
+      </c>
+      <c r="K276">
+        <v>3161</v>
+      </c>
+      <c r="N276" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A277" t="s">
+        <v>14</v>
+      </c>
+      <c r="B277">
+        <v>95454644652</v>
+      </c>
+      <c r="C277" s="2">
+        <v>45672.603159681537</v>
+      </c>
+      <c r="F277" t="s">
+        <v>21</v>
+      </c>
+      <c r="G277" t="s">
+        <v>122</v>
+      </c>
+      <c r="J277" t="s">
+        <v>142</v>
+      </c>
+      <c r="K277">
+        <v>3161</v>
+      </c>
+      <c r="N277" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A278" t="s">
+        <v>14</v>
+      </c>
+      <c r="B278">
+        <v>95455141655</v>
+      </c>
+      <c r="C278" s="2">
+        <v>45683.849849496357</v>
+      </c>
+      <c r="F278" t="s">
+        <v>21</v>
+      </c>
+      <c r="G278" t="s">
+        <v>122</v>
+      </c>
+      <c r="J278" t="s">
+        <v>142</v>
+      </c>
+      <c r="K278">
+        <v>3161</v>
+      </c>
+      <c r="N278" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A279" t="s">
+        <v>14</v>
+      </c>
+      <c r="B279">
+        <v>95455249906</v>
+      </c>
+      <c r="C279" s="2">
+        <v>45676.888807829688</v>
+      </c>
+      <c r="F279" t="s">
+        <v>21</v>
+      </c>
+      <c r="G279" t="s">
+        <v>122</v>
+      </c>
+      <c r="J279" t="s">
+        <v>142</v>
+      </c>
+      <c r="K279">
+        <v>3161</v>
+      </c>
+      <c r="N279" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A280" t="s">
+        <v>14</v>
+      </c>
+      <c r="B280">
+        <v>95455284749</v>
+      </c>
+      <c r="C280" s="2">
+        <v>45671.4324189408</v>
+      </c>
+      <c r="F280" t="s">
+        <v>21</v>
+      </c>
+      <c r="G280" t="s">
+        <v>123</v>
+      </c>
+      <c r="J280" t="s">
+        <v>142</v>
+      </c>
+      <c r="K280">
+        <v>3161</v>
+      </c>
+      <c r="N280" s="3">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A281" t="s">
+        <v>14</v>
+      </c>
+      <c r="B281">
+        <v>95455324425</v>
+      </c>
+      <c r="C281" s="2">
+        <v>45679.604513848208</v>
+      </c>
+      <c r="F281" t="s">
+        <v>21</v>
+      </c>
+      <c r="G281" t="s">
+        <v>122</v>
+      </c>
+      <c r="J281" t="s">
+        <v>142</v>
+      </c>
+      <c r="K281">
+        <v>3161</v>
+      </c>
+      <c r="N281" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A282" t="s">
+        <v>14</v>
+      </c>
+      <c r="B282">
+        <v>95455507720</v>
+      </c>
+      <c r="C282" s="2">
+        <v>45683.329108755614</v>
+      </c>
+      <c r="F282" t="s">
+        <v>21</v>
+      </c>
+      <c r="G282" t="s">
+        <v>122</v>
+      </c>
+      <c r="J282" t="s">
+        <v>142</v>
+      </c>
+      <c r="K282">
+        <v>3161</v>
+      </c>
+      <c r="N282" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A283" t="s">
+        <v>14</v>
+      </c>
+      <c r="B283">
+        <v>95455546825</v>
+      </c>
+      <c r="C283" s="2">
+        <v>45674.360462922283</v>
+      </c>
+      <c r="F283" t="s">
+        <v>21</v>
+      </c>
+      <c r="G283" t="s">
+        <v>124</v>
+      </c>
+      <c r="J283" t="s">
+        <v>142</v>
+      </c>
+      <c r="K283">
+        <v>3161</v>
+      </c>
+      <c r="N283" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A284" t="s">
+        <v>14</v>
+      </c>
+      <c r="B284">
+        <v>95455541621</v>
+      </c>
+      <c r="C284" s="2">
+        <v>45683.234398107466</v>
+      </c>
+      <c r="F284" t="s">
+        <v>21</v>
+      </c>
+      <c r="G284" t="s">
+        <v>122</v>
+      </c>
+      <c r="J284" t="s">
+        <v>142</v>
+      </c>
+      <c r="K284">
+        <v>3161</v>
+      </c>
+      <c r="N284" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A285" t="s">
+        <v>14</v>
+      </c>
+      <c r="B285">
+        <v>95455663911</v>
+      </c>
+      <c r="C285" s="2">
+        <v>45673.634155051906</v>
+      </c>
+      <c r="F285" t="s">
+        <v>21</v>
+      </c>
+      <c r="G285" t="s">
+        <v>121</v>
+      </c>
+      <c r="J285" t="s">
+        <v>142</v>
+      </c>
+      <c r="K285">
+        <v>3161</v>
+      </c>
+      <c r="N285" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A286" t="s">
+        <v>14</v>
+      </c>
+      <c r="B286">
+        <v>95456010258</v>
+      </c>
+      <c r="C286" s="2">
+        <v>45681.12464116302</v>
+      </c>
+      <c r="F286" t="s">
+        <v>21</v>
+      </c>
+      <c r="G286" t="s">
+        <v>122</v>
+      </c>
+      <c r="J286" t="s">
+        <v>142</v>
+      </c>
+      <c r="K286">
+        <v>3161</v>
+      </c>
+      <c r="N286" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A287" t="s">
+        <v>14</v>
+      </c>
+      <c r="B287">
+        <v>95456235982</v>
+      </c>
+      <c r="C287" s="2">
+        <v>45677.922210607467</v>
+      </c>
+      <c r="F287" t="s">
+        <v>21</v>
+      </c>
+      <c r="G287" t="s">
+        <v>119</v>
+      </c>
+      <c r="J287" t="s">
+        <v>142</v>
+      </c>
+      <c r="K287">
+        <v>3161</v>
+      </c>
+      <c r="N287" s="3">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A288" t="s">
+        <v>14</v>
+      </c>
+      <c r="B288">
+        <v>95456257554</v>
+      </c>
+      <c r="C288" s="2">
+        <v>45683.087638848207</v>
+      </c>
+      <c r="F288" t="s">
+        <v>21</v>
+      </c>
+      <c r="G288" t="s">
+        <v>125</v>
+      </c>
+      <c r="J288" t="s">
+        <v>142</v>
+      </c>
+      <c r="K288">
+        <v>3161</v>
+      </c>
+      <c r="N288" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A289" t="s">
+        <v>14</v>
+      </c>
+      <c r="B289">
+        <v>95456294201</v>
+      </c>
+      <c r="C289" s="2">
+        <v>45674.075763848203</v>
+      </c>
+      <c r="F289" t="s">
+        <v>21</v>
+      </c>
+      <c r="G289" t="s">
+        <v>122</v>
+      </c>
+      <c r="J289" t="s">
+        <v>142</v>
+      </c>
+      <c r="K289">
+        <v>3161</v>
+      </c>
+      <c r="N289" s="3">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A290" t="s">
+        <v>14</v>
+      </c>
+      <c r="B290">
+        <v>95456329344</v>
+      </c>
+      <c r="C290" s="2">
+        <v>45682.093611070428</v>
+      </c>
+      <c r="F290" t="s">
+        <v>21</v>
+      </c>
+      <c r="G290" t="s">
+        <v>122</v>
+      </c>
+      <c r="J290" t="s">
+        <v>142</v>
+      </c>
+      <c r="K290">
+        <v>3161</v>
+      </c>
+      <c r="N290" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A291" t="s">
+        <v>14</v>
+      </c>
+      <c r="B291">
+        <v>95454184228</v>
+      </c>
+      <c r="C291" s="2">
+        <v>45682.676307829694</v>
+      </c>
+      <c r="F291" t="s">
+        <v>21</v>
+      </c>
+      <c r="G291" t="s">
+        <v>126</v>
+      </c>
+      <c r="J291" t="s">
+        <v>142</v>
+      </c>
+      <c r="K291">
+        <v>3169</v>
+      </c>
+      <c r="N291" s="3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A292" t="s">
+        <v>14</v>
+      </c>
+      <c r="B292">
+        <v>95454785490</v>
+      </c>
+      <c r="C292" s="2">
+        <v>45674.489895792649</v>
+      </c>
+      <c r="F292" t="s">
+        <v>21</v>
+      </c>
+      <c r="G292" t="s">
+        <v>127</v>
+      </c>
+      <c r="J292" t="s">
+        <v>142</v>
+      </c>
+      <c r="K292">
+        <v>3169</v>
+      </c>
+      <c r="N292" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A293" t="s">
+        <v>14</v>
+      </c>
+      <c r="B293">
+        <v>95454640325</v>
+      </c>
+      <c r="C293" s="2">
+        <v>45672.936446718573</v>
+      </c>
+      <c r="F293" t="s">
+        <v>21</v>
+      </c>
+      <c r="G293" t="s">
+        <v>128</v>
+      </c>
+      <c r="J293" t="s">
+        <v>142</v>
+      </c>
+      <c r="K293">
+        <v>3170</v>
+      </c>
+      <c r="N293" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A294" t="s">
+        <v>14</v>
+      </c>
+      <c r="B294">
+        <v>95454674518</v>
+      </c>
+      <c r="C294" s="2">
+        <v>45672.96640042228</v>
+      </c>
+      <c r="F294" t="s">
+        <v>21</v>
+      </c>
+      <c r="G294" t="s">
+        <v>129</v>
+      </c>
+      <c r="J294" t="s">
+        <v>142</v>
+      </c>
+      <c r="K294">
+        <v>3170</v>
+      </c>
+      <c r="N294" s="3">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A295" t="s">
+        <v>14</v>
+      </c>
+      <c r="B295">
+        <v>95455543800</v>
+      </c>
+      <c r="C295" s="2">
+        <v>45677.073738385247</v>
+      </c>
+      <c r="F295" t="s">
+        <v>21</v>
+      </c>
+      <c r="G295" t="s">
+        <v>40</v>
+      </c>
+      <c r="J295" t="s">
+        <v>142</v>
+      </c>
+      <c r="K295">
+        <v>3170</v>
+      </c>
+      <c r="N295" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A296" t="s">
+        <v>14</v>
+      </c>
+      <c r="B296">
+        <v>95455587233</v>
+      </c>
+      <c r="C296" s="2">
+        <v>45676.110289311167</v>
+      </c>
+      <c r="F296" t="s">
+        <v>21</v>
+      </c>
+      <c r="G296" t="s">
+        <v>128</v>
+      </c>
+      <c r="J296" t="s">
+        <v>142</v>
+      </c>
+      <c r="K296">
+        <v>3170</v>
+      </c>
+      <c r="N296" s="3">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A297" t="s">
+        <v>14</v>
+      </c>
+      <c r="B297">
+        <v>95455067731</v>
+      </c>
+      <c r="C297" s="2">
+        <v>45682.692071718579</v>
+      </c>
+      <c r="F297" t="s">
+        <v>21</v>
+      </c>
+      <c r="G297" t="s">
+        <v>130</v>
+      </c>
+      <c r="J297" t="s">
+        <v>142</v>
+      </c>
+      <c r="K297">
+        <v>3171</v>
+      </c>
+      <c r="N297" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A298" t="s">
+        <v>14</v>
+      </c>
+      <c r="B298">
+        <v>95456075615</v>
+      </c>
+      <c r="C298" s="2">
+        <v>45673.703032366728</v>
+      </c>
+      <c r="F298" t="s">
+        <v>21</v>
+      </c>
+      <c r="G298" t="s">
+        <v>131</v>
+      </c>
+      <c r="J298" t="s">
+        <v>142</v>
+      </c>
+      <c r="K298">
+        <v>3172</v>
+      </c>
+      <c r="N298" s="3">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299">
+        <v>95453989611</v>
+      </c>
+      <c r="C299" s="2">
+        <v>45680.637580977833</v>
+      </c>
+      <c r="F299" t="s">
+        <v>21</v>
+      </c>
+      <c r="G299" t="s">
+        <v>24</v>
+      </c>
+      <c r="J299" t="s">
+        <v>142</v>
+      </c>
+      <c r="K299">
+        <v>3173</v>
+      </c>
+      <c r="N299" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300">
+        <v>95455869508</v>
+      </c>
+      <c r="C300" s="2">
+        <v>45678.876041625983</v>
+      </c>
+      <c r="F300" t="s">
+        <v>21</v>
+      </c>
+      <c r="G300" t="s">
+        <v>40</v>
+      </c>
+      <c r="J300" t="s">
+        <v>142</v>
+      </c>
+      <c r="K300">
+        <v>3173</v>
+      </c>
+      <c r="N300" s="3">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301">
+        <v>95456363189</v>
+      </c>
+      <c r="C301" s="2">
+        <v>45676.88921292228</v>
+      </c>
+      <c r="F301" t="s">
+        <v>21</v>
+      </c>
+      <c r="G301" t="s">
+        <v>128</v>
+      </c>
+      <c r="J301" t="s">
+        <v>142</v>
+      </c>
+      <c r="K301">
+        <v>3173</v>
+      </c>
+      <c r="N301" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302">
+        <v>95456266604</v>
+      </c>
+      <c r="C302" s="2">
+        <v>45675.838796255623</v>
+      </c>
+      <c r="F302" t="s">
+        <v>21</v>
+      </c>
+      <c r="G302" t="s">
+        <v>128</v>
+      </c>
+      <c r="J302" t="s">
+        <v>142</v>
+      </c>
+      <c r="K302">
+        <v>3173</v>
+      </c>
+      <c r="N302" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303">
+        <v>95454678285</v>
+      </c>
+      <c r="C303" s="2">
+        <v>45671.699629588948</v>
+      </c>
+      <c r="F303" t="s">
+        <v>21</v>
+      </c>
+      <c r="G303" t="s">
+        <v>110</v>
+      </c>
+      <c r="J303" t="s">
+        <v>142</v>
+      </c>
+      <c r="K303">
+        <v>3174</v>
+      </c>
+      <c r="N303" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304">
+        <v>95455323201</v>
+      </c>
+      <c r="C304" s="2">
+        <v>45684.075844866733</v>
+      </c>
+      <c r="F304" t="s">
+        <v>21</v>
+      </c>
+      <c r="G304" t="s">
+        <v>110</v>
+      </c>
+      <c r="J304" t="s">
+        <v>142</v>
+      </c>
+      <c r="K304">
+        <v>3174</v>
+      </c>
+      <c r="N304" s="3">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305">
+        <v>95456260298</v>
+      </c>
+      <c r="C305" s="2">
+        <v>45681.796689774143</v>
+      </c>
+      <c r="F305" t="s">
+        <v>21</v>
+      </c>
+      <c r="G305" t="s">
+        <v>110</v>
+      </c>
+      <c r="J305" t="s">
+        <v>142</v>
+      </c>
+      <c r="K305">
+        <v>3174</v>
+      </c>
+      <c r="N305" s="3">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306">
+        <v>95456363872</v>
+      </c>
+      <c r="C306" s="2">
+        <v>45679.053159681542</v>
+      </c>
+      <c r="F306" t="s">
+        <v>21</v>
+      </c>
+      <c r="G306" t="s">
+        <v>110</v>
+      </c>
+      <c r="J306" t="s">
+        <v>142</v>
+      </c>
+      <c r="K306">
+        <v>3174</v>
+      </c>
+      <c r="N306" s="3">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307">
+        <v>95456365873</v>
+      </c>
+      <c r="C307" s="2">
+        <v>45683.651770792647</v>
+      </c>
+      <c r="F307" t="s">
+        <v>21</v>
+      </c>
+      <c r="G307" t="s">
+        <v>110</v>
+      </c>
+      <c r="J307" t="s">
+        <v>142</v>
+      </c>
+      <c r="K307">
+        <v>3174</v>
+      </c>
+      <c r="N307" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A308" t="s">
+        <v>14</v>
+      </c>
+      <c r="B308">
+        <v>95455470417</v>
+      </c>
+      <c r="C308" s="2">
+        <v>45679.909502274131</v>
+      </c>
+      <c r="F308" t="s">
+        <v>21</v>
+      </c>
+      <c r="G308" t="s">
+        <v>24</v>
+      </c>
+      <c r="J308" t="s">
+        <v>142</v>
+      </c>
+      <c r="K308">
+        <v>3182</v>
+      </c>
+      <c r="N308" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A309" t="s">
+        <v>14</v>
+      </c>
+      <c r="B309">
+        <v>95455665920</v>
+      </c>
+      <c r="C309" s="2">
+        <v>45676.713055514883</v>
+      </c>
+      <c r="F309" t="s">
+        <v>21</v>
+      </c>
+      <c r="G309" t="s">
+        <v>132</v>
+      </c>
+      <c r="J309" t="s">
+        <v>142</v>
+      </c>
+      <c r="K309">
+        <v>3183</v>
+      </c>
+      <c r="N309" s="3">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A310" t="s">
+        <v>14</v>
+      </c>
+      <c r="B310">
+        <v>95454570212</v>
+      </c>
+      <c r="C310" s="2">
+        <v>45681.765902737097</v>
+      </c>
+      <c r="F310" t="s">
+        <v>21</v>
+      </c>
+      <c r="G310" t="s">
+        <v>133</v>
+      </c>
+      <c r="J310" t="s">
+        <v>142</v>
+      </c>
+      <c r="K310">
+        <v>3184</v>
+      </c>
+      <c r="N310" s="3">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A311" t="s">
+        <v>14</v>
+      </c>
+      <c r="B311">
+        <v>95454922449</v>
+      </c>
+      <c r="C311" s="2">
+        <v>45684.176145792648</v>
+      </c>
+      <c r="F311" t="s">
+        <v>21</v>
+      </c>
+      <c r="G311" t="s">
+        <v>134</v>
+      </c>
+      <c r="J311" t="s">
+        <v>142</v>
+      </c>
+      <c r="K311">
+        <v>3184</v>
+      </c>
+      <c r="N311" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A312" t="s">
+        <v>14</v>
+      </c>
+      <c r="B312">
+        <v>95454922634</v>
+      </c>
+      <c r="C312" s="2">
+        <v>45671.203969866721</v>
+      </c>
+      <c r="F312" t="s">
+        <v>21</v>
+      </c>
+      <c r="G312" t="s">
+        <v>134</v>
+      </c>
+      <c r="J312" t="s">
+        <v>142</v>
+      </c>
+      <c r="K312">
+        <v>3184</v>
+      </c>
+      <c r="N312" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A313" t="s">
+        <v>14</v>
+      </c>
+      <c r="B313">
+        <v>95454921022</v>
+      </c>
+      <c r="C313" s="2">
+        <v>45679.012754588948</v>
+      </c>
+      <c r="F313" t="s">
+        <v>21</v>
+      </c>
+      <c r="G313" t="s">
+        <v>134</v>
+      </c>
+      <c r="J313" t="s">
+        <v>142</v>
+      </c>
+      <c r="K313">
+        <v>3184</v>
+      </c>
+      <c r="N313" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A314" t="s">
+        <v>14</v>
+      </c>
+      <c r="B314">
+        <v>95454925726</v>
+      </c>
+      <c r="C314" s="2">
+        <v>45681.109525422282</v>
+      </c>
+      <c r="F314" t="s">
+        <v>21</v>
+      </c>
+      <c r="G314" t="s">
+        <v>134</v>
+      </c>
+      <c r="J314" t="s">
+        <v>142</v>
+      </c>
+      <c r="K314">
+        <v>3184</v>
+      </c>
+      <c r="N314" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A315" t="s">
+        <v>14</v>
+      </c>
+      <c r="B315">
+        <v>95454926048</v>
+      </c>
+      <c r="C315" s="2">
+        <v>45683.454745329691</v>
+      </c>
+      <c r="F315" t="s">
+        <v>21</v>
+      </c>
+      <c r="G315" t="s">
+        <v>135</v>
+      </c>
+      <c r="J315" t="s">
+        <v>142</v>
+      </c>
+      <c r="K315">
+        <v>3184</v>
+      </c>
+      <c r="N315" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A316" t="s">
+        <v>14</v>
+      </c>
+      <c r="B316">
+        <v>95454957831</v>
+      </c>
+      <c r="C316" s="2">
+        <v>45676.609317088943</v>
+      </c>
+      <c r="F316" t="s">
+        <v>21</v>
+      </c>
+      <c r="G316" t="s">
+        <v>134</v>
+      </c>
+      <c r="J316" t="s">
+        <v>142</v>
+      </c>
+      <c r="K316">
+        <v>3184</v>
+      </c>
+      <c r="N316" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A317" t="s">
+        <v>14</v>
+      </c>
+      <c r="B317">
+        <v>95455020836</v>
+      </c>
+      <c r="C317" s="2">
+        <v>45674.02890042228</v>
+      </c>
+      <c r="F317" t="s">
+        <v>21</v>
+      </c>
+      <c r="G317" t="s">
+        <v>134</v>
+      </c>
+      <c r="J317" t="s">
+        <v>142</v>
+      </c>
+      <c r="K317">
+        <v>3184</v>
+      </c>
+      <c r="N317" s="3">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A318" t="s">
+        <v>14</v>
+      </c>
+      <c r="B318">
+        <v>95455407742</v>
+      </c>
+      <c r="C318" s="2">
+        <v>45677.790277737098</v>
+      </c>
+      <c r="F318" t="s">
+        <v>21</v>
+      </c>
+      <c r="G318" t="s">
+        <v>134</v>
+      </c>
+      <c r="J318" t="s">
+        <v>142</v>
+      </c>
+      <c r="K318">
+        <v>3184</v>
+      </c>
+      <c r="N318" s="3">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A319" t="s">
+        <v>14</v>
+      </c>
+      <c r="B319">
+        <v>95455405018</v>
+      </c>
+      <c r="C319" s="2">
+        <v>45679.076226811172</v>
+      </c>
+      <c r="F319" t="s">
+        <v>21</v>
+      </c>
+      <c r="G319" t="s">
+        <v>134</v>
+      </c>
+      <c r="J319" t="s">
+        <v>142</v>
+      </c>
+      <c r="K319">
+        <v>3184</v>
+      </c>
+      <c r="N319" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A320" t="s">
+        <v>14</v>
+      </c>
+      <c r="B320">
+        <v>95455397120</v>
+      </c>
+      <c r="C320" s="2">
+        <v>45682.561701348197</v>
+      </c>
+      <c r="F320" t="s">
+        <v>21</v>
+      </c>
+      <c r="G320" t="s">
+        <v>134</v>
+      </c>
+      <c r="J320" t="s">
+        <v>142</v>
+      </c>
+      <c r="K320">
+        <v>3184</v>
+      </c>
+      <c r="N320" s="3">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A321" t="s">
+        <v>14</v>
+      </c>
+      <c r="B321">
+        <v>95455397136</v>
+      </c>
+      <c r="C321" s="2">
+        <v>45679.508009218567</v>
+      </c>
+      <c r="F321" t="s">
+        <v>21</v>
+      </c>
+      <c r="G321" t="s">
+        <v>134</v>
+      </c>
+      <c r="J321" t="s">
+        <v>142</v>
+      </c>
+      <c r="K321">
+        <v>3184</v>
+      </c>
+      <c r="N321" s="3">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A322" t="s">
+        <v>14</v>
+      </c>
+      <c r="B322">
+        <v>95455400527</v>
+      </c>
+      <c r="C322" s="2">
+        <v>45674.518796255623</v>
+      </c>
+      <c r="F322" t="s">
+        <v>21</v>
+      </c>
+      <c r="G322" t="s">
+        <v>134</v>
+      </c>
+      <c r="J322" t="s">
+        <v>142</v>
+      </c>
+      <c r="K322">
+        <v>3184</v>
+      </c>
+      <c r="N322" s="3">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A323" t="s">
+        <v>14</v>
+      </c>
+      <c r="B323">
+        <v>95454140536</v>
+      </c>
+      <c r="C323" s="2">
+        <v>45683.04850690376</v>
+      </c>
+      <c r="F323" t="s">
+        <v>21</v>
+      </c>
+      <c r="G323" t="s">
+        <v>136</v>
+      </c>
+      <c r="J323" t="s">
+        <v>142</v>
+      </c>
+      <c r="K323">
+        <v>3185</v>
+      </c>
+      <c r="N323" s="3">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A324" t="s">
+        <v>14</v>
+      </c>
+      <c r="B324">
+        <v>95455327212</v>
+      </c>
+      <c r="C324" s="2">
+        <v>45681.431562459307</v>
+      </c>
+      <c r="F324" t="s">
+        <v>21</v>
+      </c>
+      <c r="G324" t="s">
+        <v>137</v>
+      </c>
+      <c r="J324" t="s">
+        <v>142</v>
+      </c>
+      <c r="K324">
+        <v>3185</v>
+      </c>
+      <c r="N324" s="3">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A325" t="s">
+        <v>14</v>
+      </c>
+      <c r="B325">
+        <v>95455470154</v>
+      </c>
+      <c r="C325" s="2">
+        <v>45683.120740700047</v>
+      </c>
+      <c r="F325" t="s">
+        <v>21</v>
+      </c>
+      <c r="G325" t="s">
+        <v>138</v>
+      </c>
+      <c r="J325" t="s">
+        <v>142</v>
+      </c>
+      <c r="K325">
+        <v>3185</v>
+      </c>
+      <c r="N325" s="3">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A326" t="s">
+        <v>14</v>
+      </c>
+      <c r="B326">
+        <v>95455546569</v>
+      </c>
+      <c r="C326" s="2">
+        <v>45682.79614579265</v>
+      </c>
+      <c r="F326" t="s">
+        <v>21</v>
+      </c>
+      <c r="G326" t="s">
+        <v>138</v>
+      </c>
+      <c r="J326" t="s">
+        <v>142</v>
+      </c>
+      <c r="K326">
+        <v>3185</v>
+      </c>
+      <c r="N326" s="3">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A327" t="s">
+        <v>14</v>
+      </c>
+      <c r="B327">
+        <v>95453951623</v>
+      </c>
+      <c r="C327" s="2">
+        <v>45684.748159681541</v>
+      </c>
+      <c r="F327" t="s">
+        <v>21</v>
+      </c>
+      <c r="G327" t="s">
+        <v>139</v>
+      </c>
+      <c r="J327" t="s">
+        <v>142</v>
+      </c>
+      <c r="K327">
+        <v>3186</v>
+      </c>
+      <c r="N327" s="3">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A328" t="s">
+        <v>14</v>
+      </c>
+      <c r="B328">
+        <v>95456043087</v>
+      </c>
+      <c r="C328" s="2">
+        <v>45682.170486070427</v>
+      </c>
+      <c r="F328" t="s">
+        <v>21</v>
+      </c>
+      <c r="G328" t="s">
+        <v>140</v>
+      </c>
+      <c r="J328" t="s">
+        <v>142</v>
+      </c>
+      <c r="K328">
+        <v>3186</v>
+      </c>
+      <c r="N328" s="3">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A329" t="s">
+        <v>14</v>
+      </c>
+      <c r="B329">
+        <v>95456211480</v>
+      </c>
+      <c r="C329" s="2">
+        <v>45680.354826348208</v>
+      </c>
+      <c r="F329" t="s">
+        <v>21</v>
+      </c>
+      <c r="G329" t="s">
+        <v>141</v>
+      </c>
+      <c r="J329" t="s">
+        <v>142</v>
+      </c>
+      <c r="K329">
+        <v>3186</v>
+      </c>
+      <c r="N329" s="3">
+        <v>45653</v>
       </c>
     </row>
   </sheetData>
